--- a/E0_spread.xlsx
+++ b/E0_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E12291-DB30-4E2A-802D-976754C634B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268ADA4-E5B4-41C8-81E3-D7DE7A406C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>Div</t>
   </si>
@@ -240,6 +240,36 @@
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -333,15 +363,15 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>0-2</t>
   </si>
   <si>
     <t>0-3</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
@@ -354,6 +384,12 @@
     <t>2-6</t>
   </si>
   <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -408,6 +444,36 @@
     <t>9-4</t>
   </si>
   <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -472,6 +538,36 @@
   </si>
   <si>
     <t>Liverpool-Brentford</t>
+  </si>
+  <si>
+    <t>Arsenal-Brighton</t>
+  </si>
+  <si>
+    <t>Brentford-Southampton</t>
+  </si>
+  <si>
+    <t>Everton-Bournemouth</t>
+  </si>
+  <si>
+    <t>Ipswich-Fulham</t>
+  </si>
+  <si>
+    <t>Leicester-Aston Villa</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Wolves</t>
+  </si>
+  <si>
+    <t>West Ham-Man City</t>
+  </si>
+  <si>
+    <t>Chelsea-Crystal Palace</t>
+  </si>
+  <si>
+    <t>Newcastle-Tottenham</t>
+  </si>
+  <si>
+    <t>Man United-Liverpool</t>
   </si>
 </sst>
 </file>
@@ -479,7 +575,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -827,20 +923,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
+      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -1040,16 +1136,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1058,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1067,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L2">
         <v>1.63</v>
@@ -1079,10 +1175,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1130,16 +1226,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AG2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AH2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1148,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AM2">
         <v>87</v>
@@ -1172,22 +1268,18 @@
         <v>750</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>550</v>
       </c>
       <c r="AU2">
         <v>15</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>11</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>165</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>1305</v>
       </c>
       <c r="AY2">
@@ -1199,16 +1291,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1217,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1226,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L3">
         <v>8.18</v>
@@ -1238,10 +1330,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1289,16 +1381,16 @@
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG3" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1307,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AM3">
         <v>125</v>
@@ -1331,22 +1423,18 @@
         <v>480</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT21" si="0">AO3*AP3</f>
         <v>1240</v>
       </c>
       <c r="AU3">
         <v>24</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV21" si="1">AN3*AO3</f>
         <v>62</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW21" si="2">AO3*AD3</f>
         <v>372</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX21" si="3">AM3*AD3</f>
         <v>1500</v>
       </c>
       <c r="AY3">
@@ -1358,16 +1446,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1376,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1385,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L4">
         <v>1.1599999999999999</v>
@@ -1397,10 +1485,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>18</v>
@@ -1448,16 +1536,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AG4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1466,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AM4">
         <v>99</v>
@@ -1490,22 +1578,18 @@
         <v>400</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="AU4">
         <v>20</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="AY4">
@@ -1517,16 +1601,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1535,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1544,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L5">
         <v>2.73</v>
@@ -1556,10 +1640,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1607,16 +1691,16 @@
         <v>16</v>
       </c>
       <c r="AF5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AG5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1625,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AM5">
         <v>167</v>
@@ -1649,22 +1733,18 @@
         <v>270</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>2880</v>
       </c>
       <c r="AU5">
         <v>18</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>384</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>1002</v>
       </c>
       <c r="AY5">
@@ -1676,16 +1756,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1694,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1703,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L6">
         <v>1.35</v>
@@ -1715,10 +1795,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1766,16 +1846,16 @@
         <v>31</v>
       </c>
       <c r="AF6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AG6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AH6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ6">
         <v>6</v>
@@ -1784,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="AM6">
         <v>45</v>
@@ -1808,22 +1888,18 @@
         <v>1275</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="AU6">
         <v>15</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>675</v>
       </c>
       <c r="AY6">
@@ -1835,16 +1911,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1853,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1862,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L7">
         <v>2.4700000000000002</v>
@@ -1874,10 +1950,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>14</v>
@@ -1925,16 +2001,16 @@
         <v>25</v>
       </c>
       <c r="AF7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -1943,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AM7">
         <v>109</v>
@@ -1967,22 +2043,18 @@
         <v>320</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="AU7">
         <v>16</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>872</v>
       </c>
       <c r="AY7">
@@ -1994,16 +2066,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>45521</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2012,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2021,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L8">
         <v>2.4900000000000002</v>
@@ -2033,10 +2105,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2084,16 +2156,16 @@
         <v>29</v>
       </c>
       <c r="AF8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH8" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI8" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ8">
         <v>3</v>
@@ -2102,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2126,22 +2198,18 @@
         <v>240</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
       <c r="AU8">
         <v>24</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>344</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>960</v>
       </c>
       <c r="AY8">
@@ -2153,16 +2221,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2171,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2180,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -2192,10 +2260,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2243,16 +2311,16 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH9" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -2261,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AM9">
         <v>161</v>
@@ -2285,22 +2353,18 @@
         <v>660</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="AU9">
         <v>33</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>1771</v>
       </c>
       <c r="AY9">
@@ -2312,16 +2376,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2330,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2339,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L10">
         <v>4.1900000000000004</v>
@@ -2351,10 +2415,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -2402,16 +2466,16 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI10" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2420,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AM10">
         <v>102</v>
@@ -2444,22 +2508,18 @@
         <v>140</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="AU10">
         <v>14</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>714</v>
       </c>
       <c r="AY10">
@@ -2471,16 +2531,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2489,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2498,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L11">
         <v>5.09</v>
@@ -2510,10 +2570,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2561,16 +2621,16 @@
         <v>23</v>
       </c>
       <c r="AF11" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ11">
         <v>2</v>
@@ -2579,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="AM11">
         <v>86</v>
@@ -2603,22 +2663,18 @@
         <v>300</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="AU11">
         <v>30</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="3"/>
         <v>1290</v>
       </c>
       <c r="AY11">
@@ -2630,17 +2686,17 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
       <c r="F12">
         <v>2</v>
       </c>
@@ -2648,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2657,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L12">
         <v>2.5099999999999998</v>
@@ -2669,10 +2725,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -2720,16 +2776,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH12" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2738,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="AM12">
         <v>182</v>
@@ -2762,22 +2818,18 @@
         <v>240</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
       <c r="AU12">
         <v>24</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="2"/>
         <v>344</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="3"/>
         <v>1456</v>
       </c>
       <c r="AY12">
@@ -2789,16 +2841,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2807,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2816,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L13">
         <v>2.17</v>
@@ -2828,10 +2880,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>14</v>
@@ -2879,16 +2931,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ13">
         <v>2</v>
@@ -2897,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AM13">
         <v>139</v>
@@ -2921,22 +2973,18 @@
         <v>120</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="AU13">
         <v>12</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>834</v>
       </c>
       <c r="AY13">
@@ -2948,16 +2996,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2966,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2975,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L14">
         <v>1.84</v>
@@ -2987,10 +3035,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3038,16 +3086,16 @@
         <v>27</v>
       </c>
       <c r="AF14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH14" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI14" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ14">
         <v>4</v>
@@ -3056,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AM14">
         <v>126</v>
@@ -3080,22 +3128,18 @@
         <v>480</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>2080</v>
       </c>
       <c r="AU14">
         <v>36</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>624</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>1512</v>
       </c>
       <c r="AY14">
@@ -3107,16 +3151,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -3125,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -3134,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L15">
         <v>1.08</v>
@@ -3146,10 +3190,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>14</v>
@@ -3197,16 +3241,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH15" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI15" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3215,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AM15">
         <v>137</v>
@@ -3239,22 +3283,18 @@
         <v>550</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>3350</v>
       </c>
       <c r="AU15">
         <v>55</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>335</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>737</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>1507</v>
       </c>
       <c r="AY15">
@@ -3266,16 +3306,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3284,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3293,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L16">
         <v>2.59</v>
@@ -3305,10 +3345,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3356,16 +3396,16 @@
         <v>28</v>
       </c>
       <c r="AF16" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AH16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ16">
         <v>6</v>
@@ -3374,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AM16">
         <v>70</v>
@@ -3398,22 +3438,18 @@
         <v>840</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="AU16">
         <v>14</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>980</v>
       </c>
       <c r="AY16">
@@ -3425,16 +3461,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -3443,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3452,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L17">
         <v>1.45</v>
@@ -3464,10 +3500,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3515,16 +3551,16 @@
         <v>26</v>
       </c>
       <c r="AF17" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH17" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI17" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3533,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AM17">
         <v>187</v>
@@ -3557,22 +3593,18 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU17">
         <v>68</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>663</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>3179</v>
       </c>
       <c r="AY17">
@@ -3584,16 +3616,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1">
         <v>45528</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3602,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3611,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L18">
         <v>4.55</v>
@@ -3623,10 +3655,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -3674,16 +3706,16 @@
         <v>23</v>
       </c>
       <c r="AF18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH18" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI18" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3692,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AM18">
         <v>141</v>
@@ -3716,22 +3748,18 @@
         <v>200</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="AU18">
         <v>10</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>705</v>
       </c>
       <c r="AY18">
@@ -3743,16 +3771,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3761,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3770,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L19">
         <v>3.05</v>
@@ -3782,10 +3810,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -3833,16 +3861,16 @@
         <v>27</v>
       </c>
       <c r="AF19" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH19" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI19" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ19">
         <v>4</v>
@@ -3851,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="AM19">
         <v>113</v>
@@ -3875,22 +3903,18 @@
         <v>680</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
       <c r="AU19">
         <v>34</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="2"/>
         <v>442</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
         <v>1921</v>
       </c>
       <c r="AY19">
@@ -3902,16 +3926,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -3920,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3929,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L20">
         <v>4.46</v>
@@ -3941,10 +3965,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>12</v>
@@ -3992,16 +4016,16 @@
         <v>26</v>
       </c>
       <c r="AF20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AG20" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH20" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AI20" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4010,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="AM20">
         <v>369</v>
@@ -4034,22 +4058,18 @@
         <v>500</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="0"/>
         <v>5150</v>
       </c>
       <c r="AU20">
         <v>80</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="1"/>
         <v>824</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="2"/>
         <v>1030</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="3"/>
         <v>3690</v>
       </c>
       <c r="AY20">
@@ -4061,16 +4081,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4079,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4088,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L21">
         <v>1.25</v>
@@ -4100,10 +4120,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -4151,16 +4171,16 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AH21" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AI21" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4169,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -4193,26 +4213,1612 @@
         <v>650</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AU21">
         <v>26</v>
       </c>
       <c r="AV21">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="3"/>
         <v>1079</v>
       </c>
       <c r="AY21">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22">
+        <v>1.34</v>
+      </c>
+      <c r="M22">
+        <v>5.87</v>
+      </c>
+      <c r="N22">
+        <v>8.1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>22</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>7</v>
+      </c>
+      <c r="AA22">
+        <v>12</v>
+      </c>
+      <c r="AB22">
+        <v>7</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ22">
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM22">
+        <v>96</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
+        <v>38</v>
+      </c>
+      <c r="AP22">
+        <v>75</v>
+      </c>
+      <c r="AQ22">
+        <v>1100</v>
+      </c>
+      <c r="AR22">
+        <v>150</v>
+      </c>
+      <c r="AS22">
+        <v>750</v>
+      </c>
+      <c r="AT22">
+        <f>AO22*AP22</f>
+        <v>2850</v>
+      </c>
+      <c r="AU22">
+        <v>20</v>
+      </c>
+      <c r="AV22">
+        <f>AN22*AO22</f>
+        <v>76</v>
+      </c>
+      <c r="AW22">
+        <f>AO22*AD22</f>
+        <v>380</v>
+      </c>
+      <c r="AX22">
+        <f>AM22*AD22</f>
+        <v>960</v>
+      </c>
+      <c r="AY22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23">
+        <v>1.79</v>
+      </c>
+      <c r="M23">
+        <v>3.9</v>
+      </c>
+      <c r="N23">
+        <v>4.51</v>
+      </c>
+      <c r="O23" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>18</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>8</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ23">
+        <v>3</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM23">
+        <v>267</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>65</v>
+      </c>
+      <c r="AP23">
+        <v>30</v>
+      </c>
+      <c r="AQ23">
+        <v>200</v>
+      </c>
+      <c r="AR23">
+        <v>120</v>
+      </c>
+      <c r="AS23">
+        <v>300</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT31" si="0">AO23*AP23</f>
+        <v>1950</v>
+      </c>
+      <c r="AU23">
+        <v>40</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV31" si="1">AN23*AO23</f>
+        <v>260</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW31" si="2">AO23*AD23</f>
+        <v>650</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX31" si="3">AM23*AD23</f>
+        <v>2670</v>
+      </c>
+      <c r="AY23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24">
+        <v>2.82</v>
+      </c>
+      <c r="M24">
+        <v>3.38</v>
+      </c>
+      <c r="N24">
+        <v>2.62</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>17</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>12</v>
+      </c>
+      <c r="AE24">
+        <v>7</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ24">
+        <v>3</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM24">
+        <v>374</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+      <c r="AO24">
+        <v>59</v>
+      </c>
+      <c r="AP24">
+        <v>30</v>
+      </c>
+      <c r="AQ24">
+        <v>200</v>
+      </c>
+      <c r="AR24">
+        <v>150</v>
+      </c>
+      <c r="AS24">
+        <v>360</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+      <c r="AU24">
+        <v>60</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="2"/>
+        <v>708</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="3"/>
+        <v>4488</v>
+      </c>
+      <c r="AY24">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25">
+        <v>3.14</v>
+      </c>
+      <c r="M25">
+        <v>3.53</v>
+      </c>
+      <c r="N25">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AA25">
+        <v>15</v>
+      </c>
+      <c r="AB25">
+        <v>15</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>14</v>
+      </c>
+      <c r="AE25">
+        <v>30</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ25">
+        <v>5</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM25">
+        <v>47</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <v>30</v>
+      </c>
+      <c r="AP25">
+        <v>50</v>
+      </c>
+      <c r="AQ25">
+        <v>600</v>
+      </c>
+      <c r="AR25">
+        <v>100</v>
+      </c>
+      <c r="AS25">
+        <v>700</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AU25">
+        <v>28</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="AY25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26">
+        <v>4.8</v>
+      </c>
+      <c r="M26">
+        <v>4.09</v>
+      </c>
+      <c r="N26">
+        <v>1.71</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>13</v>
+      </c>
+      <c r="AB26">
+        <v>21</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ26">
+        <v>9</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM26">
+        <v>164</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>73</v>
+      </c>
+      <c r="AP26">
+        <v>90</v>
+      </c>
+      <c r="AQ26">
+        <v>2000</v>
+      </c>
+      <c r="AR26">
+        <v>270</v>
+      </c>
+      <c r="AS26">
+        <v>450</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>6570</v>
+      </c>
+      <c r="AU26">
+        <v>15</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="3"/>
+        <v>820</v>
+      </c>
+      <c r="AY26">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27">
+        <v>2.02</v>
+      </c>
+      <c r="M27">
+        <v>3.7</v>
+      </c>
+      <c r="N27">
+        <v>3.71</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>15</v>
+      </c>
+      <c r="AB27">
+        <v>18</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>33</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ27">
+        <v>7</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM27">
+        <v>22</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>38</v>
+      </c>
+      <c r="AP27">
+        <v>70</v>
+      </c>
+      <c r="AQ27">
+        <v>1200</v>
+      </c>
+      <c r="AR27">
+        <v>140</v>
+      </c>
+      <c r="AS27">
+        <v>700</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="0"/>
+        <v>2660</v>
+      </c>
+      <c r="AU27">
+        <v>20</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="AY27">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28">
+        <v>7.69</v>
+      </c>
+      <c r="M28">
+        <v>5.64</v>
+      </c>
+      <c r="N28">
+        <v>1.37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>23</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>11</v>
+      </c>
+      <c r="AA28">
+        <v>10</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>14</v>
+      </c>
+      <c r="AE28">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ28">
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM28">
+        <v>142</v>
+      </c>
+      <c r="AN28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>30</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28">
+        <v>600</v>
+      </c>
+      <c r="AR28">
+        <v>200</v>
+      </c>
+      <c r="AS28">
+        <v>700</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AU28">
+        <v>56</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="3"/>
+        <v>1988</v>
+      </c>
+      <c r="AY28">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29">
+        <v>1.63</v>
+      </c>
+      <c r="M29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <v>13</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ29">
+        <v>6</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM29">
+        <v>78</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>25</v>
+      </c>
+      <c r="AP29">
+        <v>60</v>
+      </c>
+      <c r="AQ29">
+        <v>800</v>
+      </c>
+      <c r="AR29">
+        <v>120</v>
+      </c>
+      <c r="AS29">
+        <v>540</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="AU29">
+        <v>18</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="3"/>
+        <v>702</v>
+      </c>
+      <c r="AY29">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30">
+        <v>2.5</v>
+      </c>
+      <c r="M30">
+        <v>3.96</v>
+      </c>
+      <c r="N30">
+        <v>2.62</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>20</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>12</v>
+      </c>
+      <c r="AA30">
+        <v>16</v>
+      </c>
+      <c r="AB30">
+        <v>13</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>19</v>
+      </c>
+      <c r="AE30">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ30">
+        <v>8</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM30">
+        <v>171</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>58</v>
+      </c>
+      <c r="AP30">
+        <v>80</v>
+      </c>
+      <c r="AQ30">
+        <v>1600</v>
+      </c>
+      <c r="AR30">
+        <v>240</v>
+      </c>
+      <c r="AS30">
+        <v>1520</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="0"/>
+        <v>4640</v>
+      </c>
+      <c r="AU30">
+        <v>57</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="2"/>
+        <v>1102</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="3"/>
+        <v>3249</v>
+      </c>
+      <c r="AY30">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31">
+        <v>3.93</v>
+      </c>
+      <c r="M31">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="N31">
+        <v>1.82</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>11</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>7</v>
+      </c>
+      <c r="AE31">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM31">
+        <v>133</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>25</v>
+      </c>
+      <c r="AP31">
+        <v>50</v>
+      </c>
+      <c r="AQ31">
+        <v>400</v>
+      </c>
+      <c r="AR31">
+        <v>150</v>
+      </c>
+      <c r="AS31">
+        <v>350</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="AU31">
+        <v>21</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="3"/>
+        <v>931</v>
+      </c>
+      <c r="AY31">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/E0_spread.xlsx
+++ b/E0_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268ADA4-E5B4-41C8-81E3-D7DE7A406C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD236FE5-1BE1-4FDC-B1AC-F795D445CB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="2880" windowWidth="20355" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
   <si>
     <t>Div</t>
   </si>
@@ -270,6 +270,66 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -369,12 +429,15 @@
     <t>0-2</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>0-3</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>4-1</t>
   </si>
   <si>
@@ -390,6 +453,9 @@
     <t>1-3</t>
   </si>
   <si>
+    <t>3-2</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -474,6 +540,42 @@
     <t>5-2</t>
   </si>
   <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -568,6 +670,66 @@
   </si>
   <si>
     <t>Man United-Liverpool</t>
+  </si>
+  <si>
+    <t>Southampton-Man United</t>
+  </si>
+  <si>
+    <t>Brighton-Ipswich</t>
+  </si>
+  <si>
+    <t>Crystal Palace-Leicester</t>
+  </si>
+  <si>
+    <t>Fulham-West Ham</t>
+  </si>
+  <si>
+    <t>Liverpool-Nottm Forest</t>
+  </si>
+  <si>
+    <t>Man City-Brentford</t>
+  </si>
+  <si>
+    <t>Aston Villa-Everton</t>
+  </si>
+  <si>
+    <t>Bournemouth-Chelsea</t>
+  </si>
+  <si>
+    <t>Tottenham-Arsenal</t>
+  </si>
+  <si>
+    <t>Wolves-Newcastle</t>
+  </si>
+  <si>
+    <t>West Ham-Chelsea</t>
+  </si>
+  <si>
+    <t>Aston Villa-Wolves</t>
+  </si>
+  <si>
+    <t>Fulham-Newcastle</t>
+  </si>
+  <si>
+    <t>Leicester-Everton</t>
+  </si>
+  <si>
+    <t>Liverpool-Bournemouth</t>
+  </si>
+  <si>
+    <t>Southampton-Ipswich</t>
+  </si>
+  <si>
+    <t>Tottenham-Brentford</t>
+  </si>
+  <si>
+    <t>Crystal Palace-Man United</t>
+  </si>
+  <si>
+    <t>Brighton-Nottm Forest</t>
+  </si>
+  <si>
+    <t>Man City-Arsenal</t>
   </si>
 </sst>
 </file>
@@ -923,60 +1085,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY31"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Z26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO32" sqref="AO32"/>
+      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1136,16 +1298,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1154,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1163,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>1.63</v>
@@ -1175,10 +1337,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1226,16 +1388,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AG2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AH2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1244,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="AM2">
         <v>87</v>
@@ -1291,16 +1453,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1309,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1318,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L3">
         <v>8.18</v>
@@ -1330,10 +1492,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1381,16 +1543,16 @@
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AG3" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH3" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI3" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1399,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AM3">
         <v>125</v>
@@ -1446,16 +1608,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1464,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1473,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L4">
         <v>1.1599999999999999</v>
@@ -1485,10 +1647,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>18</v>
@@ -1536,16 +1698,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="AG4" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH4" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI4" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1554,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="AM4">
         <v>99</v>
@@ -1601,16 +1763,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1619,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1628,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L5">
         <v>2.73</v>
@@ -1640,10 +1802,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1691,16 +1853,16 @@
         <v>16</v>
       </c>
       <c r="AF5" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="AG5" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH5" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI5" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1709,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="AM5">
         <v>167</v>
@@ -1756,16 +1918,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1774,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1783,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L6">
         <v>1.35</v>
@@ -1795,10 +1957,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1846,16 +2008,16 @@
         <v>31</v>
       </c>
       <c r="AF6" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AG6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AH6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ6">
         <v>6</v>
@@ -1864,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="AM6">
         <v>45</v>
@@ -1911,16 +2073,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1929,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1938,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L7">
         <v>2.4700000000000002</v>
@@ -1950,10 +2112,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>14</v>
@@ -2001,16 +2163,16 @@
         <v>25</v>
       </c>
       <c r="AF7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AG7" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2019,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="AM7">
         <v>109</v>
@@ -2066,16 +2228,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>45521</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2084,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2093,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L8">
         <v>2.4900000000000002</v>
@@ -2105,10 +2267,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2156,16 +2318,16 @@
         <v>29</v>
       </c>
       <c r="AF8" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AG8" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH8" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI8" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ8">
         <v>3</v>
@@ -2174,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2221,16 +2383,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2239,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2248,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -2260,10 +2422,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2311,16 +2473,16 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AG9" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH9" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI9" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -2329,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AM9">
         <v>161</v>
@@ -2376,16 +2538,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2394,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2403,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L10">
         <v>4.1900000000000004</v>
@@ -2415,10 +2577,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -2466,16 +2628,16 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2484,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="AM10">
         <v>102</v>
@@ -2531,16 +2693,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2549,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2558,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L11">
         <v>5.09</v>
@@ -2570,10 +2732,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2621,16 +2783,16 @@
         <v>23</v>
       </c>
       <c r="AF11" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI11" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ11">
         <v>2</v>
@@ -2639,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="AM11">
         <v>86</v>
@@ -2686,16 +2848,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2704,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2713,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L12">
         <v>2.5099999999999998</v>
@@ -2725,10 +2887,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -2776,16 +2938,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI12" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2794,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AM12">
         <v>182</v>
@@ -2841,16 +3003,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2859,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2868,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L13">
         <v>2.17</v>
@@ -2880,10 +3042,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>14</v>
@@ -2931,16 +3093,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH13" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI13" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ13">
         <v>2</v>
@@ -2949,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="AM13">
         <v>139</v>
@@ -2996,16 +3158,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3014,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3023,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L14">
         <v>1.84</v>
@@ -3035,10 +3197,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3086,16 +3248,16 @@
         <v>27</v>
       </c>
       <c r="AF14" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AG14" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH14" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI14" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ14">
         <v>4</v>
@@ -3104,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AM14">
         <v>126</v>
@@ -3151,16 +3313,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -3169,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -3178,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L15">
         <v>1.08</v>
@@ -3190,10 +3352,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>14</v>
@@ -3241,16 +3403,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH15" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI15" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3259,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AM15">
         <v>137</v>
@@ -3306,16 +3468,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3324,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3333,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L16">
         <v>2.59</v>
@@ -3345,10 +3507,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3396,16 +3558,16 @@
         <v>28</v>
       </c>
       <c r="AF16" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AH16" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI16" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ16">
         <v>6</v>
@@ -3414,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AM16">
         <v>70</v>
@@ -3461,16 +3623,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -3479,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3488,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L17">
         <v>1.45</v>
@@ -3500,10 +3662,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3551,16 +3713,16 @@
         <v>26</v>
       </c>
       <c r="AF17" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH17" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI17" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3569,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AM17">
         <v>187</v>
@@ -3616,16 +3778,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1">
         <v>45528</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3634,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3643,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L18">
         <v>4.55</v>
@@ -3655,10 +3817,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -3706,16 +3868,16 @@
         <v>23</v>
       </c>
       <c r="AF18" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH18" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI18" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3724,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AM18">
         <v>141</v>
@@ -3771,16 +3933,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3789,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3798,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L19">
         <v>3.05</v>
@@ -3810,10 +3972,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -3861,16 +4023,16 @@
         <v>27</v>
       </c>
       <c r="AF19" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG19" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH19" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI19" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ19">
         <v>4</v>
@@ -3879,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AM19">
         <v>113</v>
@@ -3926,16 +4088,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -3944,7 +4106,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -3953,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L20">
         <v>4.46</v>
@@ -3965,10 +4127,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>12</v>
@@ -4016,16 +4178,16 @@
         <v>26</v>
       </c>
       <c r="AF20" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AG20" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH20" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI20" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4034,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AM20">
         <v>369</v>
@@ -4081,16 +4243,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4099,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4108,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L21">
         <v>1.25</v>
@@ -4120,10 +4282,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -4171,16 +4333,16 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="AG21" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH21" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI21" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4189,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -4236,16 +4398,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4254,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4263,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L22">
         <v>1.34</v>
@@ -4275,10 +4437,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4326,16 +4488,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI22" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ22">
         <v>5</v>
@@ -4344,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="AL22" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AM22">
         <v>96</v>
@@ -4368,22 +4530,18 @@
         <v>750</v>
       </c>
       <c r="AT22">
-        <f>AO22*AP22</f>
         <v>2850</v>
       </c>
       <c r="AU22">
         <v>20</v>
       </c>
       <c r="AV22">
-        <f>AN22*AO22</f>
         <v>76</v>
       </c>
       <c r="AW22">
-        <f>AO22*AD22</f>
         <v>380</v>
       </c>
       <c r="AX22">
-        <f>AM22*AD22</f>
         <v>960</v>
       </c>
       <c r="AY22">
@@ -4395,16 +4553,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -4413,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4422,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L23">
         <v>1.79</v>
@@ -4434,10 +4592,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>20</v>
@@ -4485,16 +4643,16 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH23" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI23" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ23">
         <v>3</v>
@@ -4503,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AM23">
         <v>267</v>
@@ -4527,22 +4685,18 @@
         <v>300</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT31" si="0">AO23*AP23</f>
         <v>1950</v>
       </c>
       <c r="AU23">
         <v>40</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV31" si="1">AN23*AO23</f>
         <v>260</v>
       </c>
       <c r="AW23">
-        <f t="shared" ref="AW23:AW31" si="2">AO23*AD23</f>
         <v>650</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX31" si="3">AM23*AD23</f>
         <v>2670</v>
       </c>
       <c r="AY23">
@@ -4554,16 +4708,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -4572,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4581,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L24">
         <v>2.82</v>
@@ -4593,10 +4747,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>18</v>
@@ -4644,16 +4798,16 @@
         <v>7</v>
       </c>
       <c r="AF24" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AG24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4662,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AM24">
         <v>374</v>
@@ -4686,22 +4840,18 @@
         <v>360</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="0"/>
         <v>1770</v>
       </c>
       <c r="AU24">
         <v>60</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="2"/>
         <v>708</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="3"/>
         <v>4488</v>
       </c>
       <c r="AY24">
@@ -4713,16 +4863,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4731,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4740,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L25">
         <v>3.14</v>
@@ -4752,10 +4902,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -4803,16 +4953,16 @@
         <v>30</v>
       </c>
       <c r="AF25" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AG25" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH25" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI25" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ25">
         <v>5</v>
@@ -4821,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AM25">
         <v>47</v>
@@ -4845,22 +4995,18 @@
         <v>700</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="AU25">
         <v>28</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="3"/>
         <v>658</v>
       </c>
       <c r="AY25">
@@ -4872,16 +5018,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4890,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4899,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L26">
         <v>4.8</v>
@@ -4911,10 +5057,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -4962,16 +5108,16 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AG26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI26" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ26">
         <v>9</v>
@@ -4980,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="AM26">
         <v>164</v>
@@ -5004,22 +5150,18 @@
         <v>450</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="0"/>
         <v>6570</v>
       </c>
       <c r="AU26">
         <v>15</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="2"/>
         <v>365</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="3"/>
         <v>820</v>
       </c>
       <c r="AY26">
@@ -5031,16 +5173,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5049,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5058,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L27">
         <v>2.02</v>
@@ -5070,10 +5212,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>16</v>
@@ -5121,16 +5263,16 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH27" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI27" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5139,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AM27">
         <v>22</v>
@@ -5163,22 +5305,18 @@
         <v>700</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="0"/>
         <v>2660</v>
       </c>
       <c r="AU27">
         <v>20</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="2"/>
         <v>380</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="AY27">
@@ -5190,16 +5328,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1">
         <v>45535</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5208,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5217,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L28">
         <v>7.69</v>
@@ -5229,10 +5367,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5280,16 +5418,16 @@
         <v>13</v>
       </c>
       <c r="AF28" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH28" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI28" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5298,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="AM28">
         <v>142</v>
@@ -5322,22 +5460,18 @@
         <v>700</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="AU28">
         <v>56</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="3"/>
         <v>1988</v>
       </c>
       <c r="AY28">
@@ -5349,16 +5483,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5367,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5376,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L29">
         <v>1.63</v>
@@ -5388,10 +5522,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="O29" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -5439,16 +5573,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="AG29" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH29" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AI29" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ29">
         <v>6</v>
@@ -5457,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AM29">
         <v>78</v>
@@ -5481,22 +5615,18 @@
         <v>540</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="AU29">
         <v>18</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="3"/>
         <v>702</v>
       </c>
       <c r="AY29">
@@ -5508,16 +5638,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5526,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5535,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L30">
         <v>2.5</v>
@@ -5547,10 +5677,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -5598,16 +5728,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="AG30" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH30" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI30" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ30">
         <v>8</v>
@@ -5616,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AM30">
         <v>171</v>
@@ -5640,22 +5770,18 @@
         <v>1520</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="0"/>
         <v>4640</v>
       </c>
       <c r="AU30">
         <v>57</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="2"/>
         <v>1102</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="3"/>
         <v>3249</v>
       </c>
       <c r="AY30">
@@ -5667,16 +5793,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5685,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5694,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L31">
         <v>3.93</v>
@@ -5706,10 +5832,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P31" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -5757,16 +5883,16 @@
         <v>14</v>
       </c>
       <c r="AF31" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="AG31" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AH31" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AI31" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AJ31">
         <v>5</v>
@@ -5775,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AM31">
         <v>133</v>
@@ -5799,26 +5925,3162 @@
         <v>350</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="AU31">
         <v>21</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="3"/>
         <v>931</v>
       </c>
       <c r="AY31">
         <v>1050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32">
+        <v>4.5</v>
+      </c>
+      <c r="M32">
+        <v>4.13</v>
+      </c>
+      <c r="N32">
+        <v>1.74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AA32">
+        <v>11</v>
+      </c>
+      <c r="AB32">
+        <v>14</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+      <c r="AE32">
+        <v>25</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ32">
+        <v>5</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM32">
+        <v>166</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>31</v>
+      </c>
+      <c r="AP32">
+        <v>75</v>
+      </c>
+      <c r="AQ32">
+        <v>1400</v>
+      </c>
+      <c r="AR32">
+        <v>225</v>
+      </c>
+      <c r="AS32">
+        <v>525</v>
+      </c>
+      <c r="AT32">
+        <v>2325</v>
+      </c>
+      <c r="AU32">
+        <v>21</v>
+      </c>
+      <c r="AV32">
+        <v>93</v>
+      </c>
+      <c r="AW32">
+        <v>217</v>
+      </c>
+      <c r="AX32">
+        <v>1162</v>
+      </c>
+      <c r="AY32">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33">
+        <v>1.38</v>
+      </c>
+      <c r="M33">
+        <v>5.13</v>
+      </c>
+      <c r="N33">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="O33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>14</v>
+      </c>
+      <c r="AB33">
+        <v>16</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>11</v>
+      </c>
+      <c r="AE33">
+        <v>30</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ33">
+        <v>7</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>70</v>
+      </c>
+      <c r="AQ33">
+        <v>1200</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>770</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34">
+        <v>1.62</v>
+      </c>
+      <c r="M34">
+        <v>4.13</v>
+      </c>
+      <c r="N34">
+        <v>5.48</v>
+      </c>
+      <c r="O34" t="s">
+        <v>126</v>
+      </c>
+      <c r="P34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34">
+        <v>20</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>5</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>11</v>
+      </c>
+      <c r="AB34">
+        <v>15</v>
+      </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <v>7</v>
+      </c>
+      <c r="AE34">
+        <v>26</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ34">
+        <v>3</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM34">
+        <v>204</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <v>47</v>
+      </c>
+      <c r="AP34">
+        <v>30</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>120</v>
+      </c>
+      <c r="AS34">
+        <v>210</v>
+      </c>
+      <c r="AT34">
+        <v>1410</v>
+      </c>
+      <c r="AU34">
+        <v>28</v>
+      </c>
+      <c r="AV34">
+        <v>188</v>
+      </c>
+      <c r="AW34">
+        <v>329</v>
+      </c>
+      <c r="AX34">
+        <v>1428</v>
+      </c>
+      <c r="AY34">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35">
+        <v>2.4</v>
+      </c>
+      <c r="M35">
+        <v>3.53</v>
+      </c>
+      <c r="N35">
+        <v>2.97</v>
+      </c>
+      <c r="O35" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>11</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>15</v>
+      </c>
+      <c r="AB35">
+        <v>18</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>5</v>
+      </c>
+      <c r="AE35">
+        <v>33</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ35">
+        <v>5</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM35">
+        <v>114</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>25</v>
+      </c>
+      <c r="AP35">
+        <v>50</v>
+      </c>
+      <c r="AQ35">
+        <v>600</v>
+      </c>
+      <c r="AR35">
+        <v>100</v>
+      </c>
+      <c r="AS35">
+        <v>250</v>
+      </c>
+      <c r="AT35">
+        <v>1250</v>
+      </c>
+      <c r="AU35">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>50</v>
+      </c>
+      <c r="AW35">
+        <v>125</v>
+      </c>
+      <c r="AX35">
+        <v>570</v>
+      </c>
+      <c r="AY35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36">
+        <v>1.21</v>
+      </c>
+      <c r="M36">
+        <v>7.23</v>
+      </c>
+      <c r="N36">
+        <v>12.71</v>
+      </c>
+      <c r="O36" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>15</v>
+      </c>
+      <c r="AB36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>9</v>
+      </c>
+      <c r="AE36">
+        <v>21</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ36">
+        <v>8</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM36">
+        <v>72</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>14</v>
+      </c>
+      <c r="AP36">
+        <v>80</v>
+      </c>
+      <c r="AQ36">
+        <v>1600</v>
+      </c>
+      <c r="AR36">
+        <v>80</v>
+      </c>
+      <c r="AS36">
+        <v>720</v>
+      </c>
+      <c r="AT36">
+        <v>1120</v>
+      </c>
+      <c r="AU36">
+        <v>9</v>
+      </c>
+      <c r="AV36">
+        <v>14</v>
+      </c>
+      <c r="AW36">
+        <v>126</v>
+      </c>
+      <c r="AX36">
+        <v>648</v>
+      </c>
+      <c r="AY36">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37">
+        <v>1.17</v>
+      </c>
+      <c r="M37">
+        <v>8.43</v>
+      </c>
+      <c r="N37">
+        <v>14.62</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37">
+        <v>18</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
+        <v>9</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>15</v>
+      </c>
+      <c r="AE37">
+        <v>12</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ37">
+        <v>4</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM37">
+        <v>52</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>29</v>
+      </c>
+      <c r="AP37">
+        <v>40</v>
+      </c>
+      <c r="AQ37">
+        <v>300</v>
+      </c>
+      <c r="AR37">
+        <v>120</v>
+      </c>
+      <c r="AS37">
+        <v>600</v>
+      </c>
+      <c r="AT37">
+        <v>1160</v>
+      </c>
+      <c r="AU37">
+        <v>45</v>
+      </c>
+      <c r="AV37">
+        <v>87</v>
+      </c>
+      <c r="AW37">
+        <v>435</v>
+      </c>
+      <c r="AX37">
+        <v>780</v>
+      </c>
+      <c r="AY37">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38">
+        <v>1.51</v>
+      </c>
+      <c r="M38">
+        <v>4.45</v>
+      </c>
+      <c r="N38">
+        <v>6.48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38">
+        <v>17</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <v>12</v>
+      </c>
+      <c r="AC38">
+        <v>5</v>
+      </c>
+      <c r="AD38">
+        <v>8</v>
+      </c>
+      <c r="AE38">
+        <v>22</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ38">
+        <v>5</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM38">
+        <v>213</v>
+      </c>
+      <c r="AN38">
+        <v>5</v>
+      </c>
+      <c r="AO38">
+        <v>47</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38">
+        <v>400</v>
+      </c>
+      <c r="AR38">
+        <v>250</v>
+      </c>
+      <c r="AS38">
+        <v>400</v>
+      </c>
+      <c r="AT38">
+        <v>2350</v>
+      </c>
+      <c r="AU38">
+        <v>40</v>
+      </c>
+      <c r="AV38">
+        <v>235</v>
+      </c>
+      <c r="AW38">
+        <v>376</v>
+      </c>
+      <c r="AX38">
+        <v>1704</v>
+      </c>
+      <c r="AY38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39">
+        <v>3.32</v>
+      </c>
+      <c r="M39">
+        <v>3.97</v>
+      </c>
+      <c r="N39">
+        <v>2.06</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>10</v>
+      </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>14</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ39">
+        <v>6</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM39">
+        <v>86</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>18</v>
+      </c>
+      <c r="AP39">
+        <v>140</v>
+      </c>
+      <c r="AQ39">
+        <v>4800</v>
+      </c>
+      <c r="AR39">
+        <v>140</v>
+      </c>
+      <c r="AS39">
+        <v>700</v>
+      </c>
+      <c r="AT39">
+        <v>2520</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>18</v>
+      </c>
+      <c r="AW39">
+        <v>90</v>
+      </c>
+      <c r="AX39">
+        <v>430</v>
+      </c>
+      <c r="AY39">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40">
+        <v>3.03</v>
+      </c>
+      <c r="M40">
+        <v>3.62</v>
+      </c>
+      <c r="N40">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q40">
+        <v>15</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <v>6</v>
+      </c>
+      <c r="AA40">
+        <v>13</v>
+      </c>
+      <c r="AB40">
+        <v>10</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>13</v>
+      </c>
+      <c r="AE40">
+        <v>23</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ40">
+        <v>8</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM40">
+        <v>64</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>6</v>
+      </c>
+      <c r="AP40">
+        <v>80</v>
+      </c>
+      <c r="AQ40">
+        <v>1500</v>
+      </c>
+      <c r="AR40">
+        <v>80</v>
+      </c>
+      <c r="AS40">
+        <v>1040</v>
+      </c>
+      <c r="AT40">
+        <v>480</v>
+      </c>
+      <c r="AU40">
+        <v>13</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>78</v>
+      </c>
+      <c r="AX40">
+        <v>832</v>
+      </c>
+      <c r="AY40">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41">
+        <v>3.41</v>
+      </c>
+      <c r="M41">
+        <v>3.71</v>
+      </c>
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>14</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <v>7</v>
+      </c>
+      <c r="AA41">
+        <v>17</v>
+      </c>
+      <c r="AB41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>23</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ41">
+        <v>6</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM41">
+        <v>191</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>21</v>
+      </c>
+      <c r="AP41">
+        <v>60</v>
+      </c>
+      <c r="AQ41">
+        <v>900</v>
+      </c>
+      <c r="AR41">
+        <v>180</v>
+      </c>
+      <c r="AS41">
+        <v>660</v>
+      </c>
+      <c r="AT41">
+        <v>1260</v>
+      </c>
+      <c r="AU41">
+        <v>33</v>
+      </c>
+      <c r="AV41">
+        <v>63</v>
+      </c>
+      <c r="AW41">
+        <v>231</v>
+      </c>
+      <c r="AX41">
+        <v>2101</v>
+      </c>
+      <c r="AY41">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
+      </c>
+      <c r="L42">
+        <v>3.59</v>
+      </c>
+      <c r="M42">
+        <v>3.93</v>
+      </c>
+      <c r="N42">
+        <v>1.99</v>
+      </c>
+      <c r="O42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42">
+        <v>15</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>12</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
+      </c>
+      <c r="AA42">
+        <v>17</v>
+      </c>
+      <c r="AB42">
+        <v>9</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AE42">
+        <v>26</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ42">
+        <v>7</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM42">
+        <v>79</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>50</v>
+      </c>
+      <c r="AP42">
+        <v>70</v>
+      </c>
+      <c r="AQ42">
+        <v>1000</v>
+      </c>
+      <c r="AR42">
+        <v>210</v>
+      </c>
+      <c r="AS42">
+        <v>770</v>
+      </c>
+      <c r="AT42">
+        <f>AO42*AP42</f>
+        <v>3500</v>
+      </c>
+      <c r="AU42">
+        <v>33</v>
+      </c>
+      <c r="AV42">
+        <f>AN42*AO42</f>
+        <v>150</v>
+      </c>
+      <c r="AW42">
+        <f>AO42*AD42</f>
+        <v>550</v>
+      </c>
+      <c r="AX42">
+        <f>AM42*AD42</f>
+        <v>869</v>
+      </c>
+      <c r="AY42">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>122</v>
+      </c>
+      <c r="L43">
+        <v>1.59</v>
+      </c>
+      <c r="M43">
+        <v>4.47</v>
+      </c>
+      <c r="N43">
+        <v>5.44</v>
+      </c>
+      <c r="O43" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>6</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>11</v>
+      </c>
+      <c r="AB43">
+        <v>16</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43">
+        <v>11</v>
+      </c>
+      <c r="AE43">
+        <v>27</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ43">
+        <v>9</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM43">
+        <v>276</v>
+      </c>
+      <c r="AN43">
+        <v>4</v>
+      </c>
+      <c r="AO43">
+        <v>34</v>
+      </c>
+      <c r="AP43">
+        <v>90</v>
+      </c>
+      <c r="AQ43">
+        <v>1800</v>
+      </c>
+      <c r="AR43">
+        <v>360</v>
+      </c>
+      <c r="AS43">
+        <v>990</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" ref="AT43:AT51" si="0">AO43*AP43</f>
+        <v>3060</v>
+      </c>
+      <c r="AU43">
+        <v>44</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" ref="AV43:AV51" si="1">AN43*AO43</f>
+        <v>136</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" ref="AW43:AW51" si="2">AO43*AD43</f>
+        <v>374</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" ref="AX43:AX51" si="3">AM43*AD43</f>
+        <v>3036</v>
+      </c>
+      <c r="AY43">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44">
+        <v>2.89</v>
+      </c>
+      <c r="M44">
+        <v>3.54</v>
+      </c>
+      <c r="N44">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O44" t="s">
+        <v>129</v>
+      </c>
+      <c r="P44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q44">
+        <v>22</v>
+      </c>
+      <c r="R44">
+        <v>11</v>
+      </c>
+      <c r="S44">
+        <v>15</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>16</v>
+      </c>
+      <c r="AB44">
+        <v>8</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>6</v>
+      </c>
+      <c r="AE44">
+        <v>24</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ44">
+        <v>6</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM44">
+        <v>163</v>
+      </c>
+      <c r="AN44">
+        <v>4</v>
+      </c>
+      <c r="AO44">
+        <v>69</v>
+      </c>
+      <c r="AP44">
+        <v>60</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>240</v>
+      </c>
+      <c r="AS44">
+        <v>360</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>4140</v>
+      </c>
+      <c r="AU44">
+        <v>24</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="3"/>
+        <v>978</v>
+      </c>
+      <c r="AY44">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45">
+        <v>2.54</v>
+      </c>
+      <c r="M45">
+        <v>3.43</v>
+      </c>
+      <c r="N45">
+        <v>2.88</v>
+      </c>
+      <c r="O45" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q45">
+        <v>12</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>16</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>11</v>
+      </c>
+      <c r="AB45">
+        <v>12</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>23</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ45">
+        <v>3</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM45">
+        <v>85</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>20</v>
+      </c>
+      <c r="AP45">
+        <v>30</v>
+      </c>
+      <c r="AQ45">
+        <v>200</v>
+      </c>
+      <c r="AR45">
+        <v>60</v>
+      </c>
+      <c r="AS45">
+        <v>210</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="AU45">
+        <v>14</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="AY45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+      <c r="L46">
+        <v>1.28</v>
+      </c>
+      <c r="M46">
+        <v>6.36</v>
+      </c>
+      <c r="N46">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="O46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q46">
+        <v>19</v>
+      </c>
+      <c r="R46">
+        <v>13</v>
+      </c>
+      <c r="S46">
+        <v>19</v>
+      </c>
+      <c r="T46">
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>9</v>
+      </c>
+      <c r="AA46">
+        <v>10</v>
+      </c>
+      <c r="AB46">
+        <v>12</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>22</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ46">
+        <v>5</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM46">
+        <v>91</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>23</v>
+      </c>
+      <c r="AP46">
+        <v>50</v>
+      </c>
+      <c r="AQ46">
+        <v>400</v>
+      </c>
+      <c r="AR46">
+        <v>150</v>
+      </c>
+      <c r="AS46">
+        <v>600</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="AU46">
+        <v>36</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="3"/>
+        <v>1092</v>
+      </c>
+      <c r="AY46">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47">
+        <v>2.27</v>
+      </c>
+      <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47">
+        <v>3.24</v>
+      </c>
+      <c r="O47" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47">
+        <v>11</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>10</v>
+      </c>
+      <c r="AA47">
+        <v>16</v>
+      </c>
+      <c r="AB47">
+        <v>16</v>
+      </c>
+      <c r="AC47">
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <v>12</v>
+      </c>
+      <c r="AE47">
+        <v>32</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ47">
+        <v>8</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM47">
+        <v>95</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>38</v>
+      </c>
+      <c r="AP47">
+        <v>80</v>
+      </c>
+      <c r="AQ47">
+        <v>1600</v>
+      </c>
+      <c r="AR47">
+        <v>160</v>
+      </c>
+      <c r="AS47">
+        <v>960</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="0"/>
+        <v>3040</v>
+      </c>
+      <c r="AU47">
+        <v>24</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
+      <c r="AY47">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48">
+        <v>1.55</v>
+      </c>
+      <c r="M48">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="N48">
+        <v>5.48</v>
+      </c>
+      <c r="O48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>6</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+      <c r="Z48">
+        <v>4</v>
+      </c>
+      <c r="AA48">
+        <v>11</v>
+      </c>
+      <c r="AB48">
+        <v>9</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>13</v>
+      </c>
+      <c r="AE48">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM48">
+        <v>122</v>
+      </c>
+      <c r="AN48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>70</v>
+      </c>
+      <c r="AP48">
+        <v>40</v>
+      </c>
+      <c r="AQ48">
+        <v>300</v>
+      </c>
+      <c r="AR48">
+        <v>160</v>
+      </c>
+      <c r="AS48">
+        <v>520</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="AU48">
+        <v>52</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="3"/>
+        <v>1586</v>
+      </c>
+      <c r="AY48">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49">
+        <v>2.92</v>
+      </c>
+      <c r="M49">
+        <v>3.76</v>
+      </c>
+      <c r="N49">
+        <v>2.35</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49">
+        <v>9</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+      <c r="Z49">
+        <v>11</v>
+      </c>
+      <c r="AA49">
+        <v>7</v>
+      </c>
+      <c r="AB49">
+        <v>12</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>19</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>40</v>
+      </c>
+      <c r="AQ49">
+        <v>300</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>600</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50">
+        <v>1.79</v>
+      </c>
+      <c r="M50">
+        <v>3.91</v>
+      </c>
+      <c r="N50">
+        <v>4.51</v>
+      </c>
+      <c r="O50" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q50">
+        <v>14</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>12</v>
+      </c>
+      <c r="AB50">
+        <v>11</v>
+      </c>
+      <c r="AC50">
+        <v>4</v>
+      </c>
+      <c r="AD50">
+        <v>10</v>
+      </c>
+      <c r="AE50">
+        <v>23</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ50">
+        <v>7</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM50">
+        <v>170</v>
+      </c>
+      <c r="AN50">
+        <v>4</v>
+      </c>
+      <c r="AO50">
+        <v>94</v>
+      </c>
+      <c r="AP50">
+        <v>95</v>
+      </c>
+      <c r="AQ50">
+        <v>1950</v>
+      </c>
+      <c r="AR50">
+        <v>380</v>
+      </c>
+      <c r="AS50">
+        <v>950</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="0"/>
+        <v>8930</v>
+      </c>
+      <c r="AU50">
+        <v>40</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="AY50">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51">
+        <v>1.85</v>
+      </c>
+      <c r="M51">
+        <v>3.66</v>
+      </c>
+      <c r="N51">
+        <v>4.54</v>
+      </c>
+      <c r="O51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q51">
+        <v>33</v>
+      </c>
+      <c r="R51">
+        <v>11</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>4</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>7</v>
+      </c>
+      <c r="AB51">
+        <v>10</v>
+      </c>
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>17</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ51">
+        <v>7</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM51">
+        <v>166</v>
+      </c>
+      <c r="AN51">
+        <v>4</v>
+      </c>
+      <c r="AO51">
+        <v>53</v>
+      </c>
+      <c r="AP51">
+        <v>95</v>
+      </c>
+      <c r="AQ51">
+        <v>1950</v>
+      </c>
+      <c r="AR51">
+        <v>380</v>
+      </c>
+      <c r="AS51">
+        <v>950</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="0"/>
+        <v>5035</v>
+      </c>
+      <c r="AU51">
+        <v>40</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="3"/>
+        <v>1660</v>
+      </c>
+      <c r="AY51">
+        <v>3800</v>
       </c>
     </row>
   </sheetData>

--- a/E0_spread.xlsx
+++ b/E0_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD236FE5-1BE1-4FDC-B1AC-F795D445CB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF62EE-5450-4D5C-A656-FEA1C74E3732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2880" windowWidth="20355" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="261">
   <si>
     <t>Div</t>
   </si>
@@ -330,6 +330,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>0-3</t>
   </si>
   <si>
@@ -576,6 +609,24 @@
     <t>9-1</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>17-0</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -730,6 +781,36 @@
   </si>
   <si>
     <t>Man City-Arsenal</t>
+  </si>
+  <si>
+    <t>Newcastle-Man City</t>
+  </si>
+  <si>
+    <t>Arsenal-Leicester</t>
+  </si>
+  <si>
+    <t>Brentford-West Ham</t>
+  </si>
+  <si>
+    <t>Chelsea-Brighton</t>
+  </si>
+  <si>
+    <t>Everton-Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Fulham</t>
+  </si>
+  <si>
+    <t>Wolves-Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich-Aston Villa</t>
+  </si>
+  <si>
+    <t>Man United-Tottenham</t>
+  </si>
+  <si>
+    <t>Bournemouth-Southampton</t>
   </si>
 </sst>
 </file>
@@ -1085,60 +1166,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
+      <selection pane="bottomRight" activeCell="AO62" sqref="AO62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1298,16 +1377,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1316,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1325,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L2">
         <v>1.63</v>
@@ -1337,10 +1416,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1388,16 +1467,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AG2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1406,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="AM2">
         <v>87</v>
@@ -1453,16 +1532,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1471,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1480,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L3">
         <v>8.18</v>
@@ -1492,10 +1571,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1543,16 +1622,16 @@
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AG3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1561,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="AM3">
         <v>125</v>
@@ -1608,16 +1687,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1626,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1635,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>1.1599999999999999</v>
@@ -1647,10 +1726,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>18</v>
@@ -1698,16 +1777,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AG4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH4" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI4" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1716,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="AM4">
         <v>99</v>
@@ -1763,16 +1842,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1781,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1790,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L5">
         <v>2.73</v>
@@ -1802,10 +1881,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1853,16 +1932,16 @@
         <v>16</v>
       </c>
       <c r="AF5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AG5" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH5" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI5" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1871,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AM5">
         <v>167</v>
@@ -1918,16 +1997,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1936,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1945,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>1.35</v>
@@ -1957,10 +2036,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2008,16 +2087,16 @@
         <v>31</v>
       </c>
       <c r="AF6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AG6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ6">
         <v>6</v>
@@ -2026,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="AM6">
         <v>45</v>
@@ -2073,16 +2152,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2091,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2100,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>2.4700000000000002</v>
@@ -2112,10 +2191,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>14</v>
@@ -2163,16 +2242,16 @@
         <v>25</v>
       </c>
       <c r="AF7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AG7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2181,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AM7">
         <v>109</v>
@@ -2228,16 +2307,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1">
         <v>45521</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2246,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2255,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L8">
         <v>2.4900000000000002</v>
@@ -2267,10 +2346,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2318,16 +2397,16 @@
         <v>29</v>
       </c>
       <c r="AF8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI8" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ8">
         <v>3</v>
@@ -2336,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2383,16 +2462,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2401,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2410,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -2422,10 +2501,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2473,16 +2552,16 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AG9" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH9" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI9" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -2491,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AM9">
         <v>161</v>
@@ -2538,16 +2617,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2556,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2565,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L10">
         <v>4.1900000000000004</v>
@@ -2577,10 +2656,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -2628,16 +2707,16 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AG10" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI10" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2646,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AM10">
         <v>102</v>
@@ -2693,16 +2772,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2711,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2720,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11">
         <v>5.09</v>
@@ -2732,10 +2811,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2783,16 +2862,16 @@
         <v>23</v>
       </c>
       <c r="AF11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AG11" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH11" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI11" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ11">
         <v>2</v>
@@ -2801,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="AM11">
         <v>86</v>
@@ -2848,17 +2927,17 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
       <c r="F12">
         <v>2</v>
       </c>
@@ -2866,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2875,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L12">
         <v>2.5099999999999998</v>
@@ -2887,10 +2966,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -2938,16 +3017,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH12" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -2956,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AM12">
         <v>182</v>
@@ -3003,16 +3082,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3021,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3030,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L13">
         <v>2.17</v>
@@ -3042,10 +3121,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>14</v>
@@ -3093,16 +3172,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH13" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI13" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ13">
         <v>2</v>
@@ -3111,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AM13">
         <v>139</v>
@@ -3158,16 +3237,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3176,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3185,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L14">
         <v>1.84</v>
@@ -3197,10 +3276,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3248,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="AF14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH14" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI14" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ14">
         <v>4</v>
@@ -3266,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AM14">
         <v>126</v>
@@ -3313,16 +3392,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -3331,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -3340,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L15">
         <v>1.08</v>
@@ -3352,10 +3431,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>14</v>
@@ -3403,16 +3482,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH15" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3421,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AM15">
         <v>137</v>
@@ -3468,16 +3547,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3486,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3495,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L16">
         <v>2.59</v>
@@ -3507,10 +3586,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3558,16 +3637,16 @@
         <v>28</v>
       </c>
       <c r="AF16" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ16">
         <v>6</v>
@@ -3576,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="AM16">
         <v>70</v>
@@ -3623,16 +3702,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -3641,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3650,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L17">
         <v>1.45</v>
@@ -3662,10 +3741,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3713,16 +3792,16 @@
         <v>26</v>
       </c>
       <c r="AF17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3731,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AM17">
         <v>187</v>
@@ -3778,16 +3857,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1">
         <v>45528</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3796,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3805,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L18">
         <v>4.55</v>
@@ -3817,10 +3896,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -3868,16 +3947,16 @@
         <v>23</v>
       </c>
       <c r="AF18" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AG18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3886,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AM18">
         <v>141</v>
@@ -3933,16 +4012,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3951,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3960,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L19">
         <v>3.05</v>
@@ -3972,10 +4051,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="O19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -4023,16 +4102,16 @@
         <v>27</v>
       </c>
       <c r="AF19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ19">
         <v>4</v>
@@ -4041,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="AM19">
         <v>113</v>
@@ -4088,16 +4167,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
         <v>119</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -4106,7 +4185,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -4115,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L20">
         <v>4.46</v>
@@ -4127,10 +4206,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>12</v>
@@ -4178,16 +4257,16 @@
         <v>26</v>
       </c>
       <c r="AF20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI20" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4196,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="AM20">
         <v>369</v>
@@ -4243,16 +4322,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4261,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4270,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L21">
         <v>1.25</v>
@@ -4282,10 +4361,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -4333,16 +4412,16 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AG21" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI21" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4351,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -4398,16 +4477,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4416,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4425,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L22">
         <v>1.34</v>
@@ -4437,10 +4516,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4488,16 +4567,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH22" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI22" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ22">
         <v>5</v>
@@ -4506,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="AL22" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AM22">
         <v>96</v>
@@ -4553,16 +4632,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -4571,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4580,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L23">
         <v>1.79</v>
@@ -4592,10 +4671,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>20</v>
@@ -4643,16 +4722,16 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AG23" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH23" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ23">
         <v>3</v>
@@ -4661,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AM23">
         <v>267</v>
@@ -4708,16 +4787,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -4726,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4735,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L24">
         <v>2.82</v>
@@ -4747,10 +4826,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>18</v>
@@ -4798,16 +4877,16 @@
         <v>7</v>
       </c>
       <c r="AF24" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AG24" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH24" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI24" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4816,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AM24">
         <v>374</v>
@@ -4863,16 +4942,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4881,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4890,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L25">
         <v>3.14</v>
@@ -4902,10 +4981,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -4953,16 +5032,16 @@
         <v>30</v>
       </c>
       <c r="AF25" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AG25" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH25" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI25" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ25">
         <v>5</v>
@@ -4971,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="AM25">
         <v>47</v>
@@ -5018,16 +5097,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5036,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5045,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L26">
         <v>4.8</v>
@@ -5057,10 +5136,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -5108,16 +5187,16 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH26" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI26" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ26">
         <v>9</v>
@@ -5126,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AM26">
         <v>164</v>
@@ -5173,16 +5252,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5191,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5200,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L27">
         <v>2.02</v>
@@ -5212,10 +5291,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>16</v>
@@ -5263,16 +5342,16 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH27" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI27" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5281,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="AM27">
         <v>22</v>
@@ -5328,16 +5407,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1">
         <v>45535</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5346,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5355,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L28">
         <v>7.69</v>
@@ -5367,10 +5446,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5418,16 +5497,16 @@
         <v>13</v>
       </c>
       <c r="AF28" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH28" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI28" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5436,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="AM28">
         <v>142</v>
@@ -5483,16 +5562,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5501,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5510,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>1.63</v>
@@ -5522,10 +5601,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="O29" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -5573,16 +5652,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AG29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH29" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI29" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ29">
         <v>6</v>
@@ -5591,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="AM29">
         <v>78</v>
@@ -5638,16 +5717,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5656,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5665,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L30">
         <v>2.5</v>
@@ -5677,10 +5756,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -5728,16 +5807,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH30" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI30" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ30">
         <v>8</v>
@@ -5746,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="AM30">
         <v>171</v>
@@ -5793,16 +5872,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5811,7 +5890,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5820,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L31">
         <v>3.93</v>
@@ -5832,10 +5911,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -5883,16 +5962,16 @@
         <v>14</v>
       </c>
       <c r="AF31" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG31" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH31" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI31" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ31">
         <v>5</v>
@@ -5901,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AM31">
         <v>133</v>
@@ -5948,16 +6027,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5966,7 +6045,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5975,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L32">
         <v>4.5</v>
@@ -5987,10 +6066,10 @@
         <v>1.74</v>
       </c>
       <c r="O32" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -6038,16 +6117,16 @@
         <v>25</v>
       </c>
       <c r="AF32" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AG32" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI32" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6056,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="AL32" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AM32">
         <v>166</v>
@@ -6103,16 +6182,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
         <v>45549</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6121,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6130,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L33">
         <v>1.38</v>
@@ -6142,10 +6221,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="O33" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>21</v>
@@ -6193,16 +6272,16 @@
         <v>30</v>
       </c>
       <c r="AF33" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH33" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI33" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ33">
         <v>7</v>
@@ -6211,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6258,16 +6337,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <v>45549</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6276,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6285,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L34">
         <v>1.62</v>
@@ -6297,10 +6376,10 @@
         <v>5.48</v>
       </c>
       <c r="O34" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>20</v>
@@ -6348,16 +6427,16 @@
         <v>26</v>
       </c>
       <c r="AF34" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ34">
         <v>3</v>
@@ -6366,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AM34">
         <v>204</v>
@@ -6413,16 +6492,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1">
         <v>45549</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6431,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6440,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L35">
         <v>2.4</v>
@@ -6452,10 +6531,10 @@
         <v>2.97</v>
       </c>
       <c r="O35" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>21</v>
@@ -6503,16 +6582,16 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AG35" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH35" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI35" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6521,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AM35">
         <v>114</v>
@@ -6568,16 +6647,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1">
         <v>45549</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -6586,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6595,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L36">
         <v>1.21</v>
@@ -6607,10 +6686,10 @@
         <v>12.71</v>
       </c>
       <c r="O36" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6658,16 +6737,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AG36" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH36" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI36" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ36">
         <v>8</v>
@@ -6676,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AM36">
         <v>72</v>
@@ -6723,16 +6802,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1">
         <v>45549</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -6741,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6750,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L37">
         <v>1.17</v>
@@ -6762,10 +6841,10 @@
         <v>14.62</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>18</v>
@@ -6813,16 +6892,16 @@
         <v>12</v>
       </c>
       <c r="AF37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="AG37" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH37" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI37" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ37">
         <v>4</v>
@@ -6831,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AM37">
         <v>52</v>
@@ -6878,16 +6957,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>45549</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -6896,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -6905,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L38">
         <v>1.51</v>
@@ -6917,10 +6996,10 @@
         <v>6.48</v>
       </c>
       <c r="O38" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>17</v>
@@ -6968,16 +7047,16 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="AG38" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH38" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI38" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -6986,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AM38">
         <v>213</v>
@@ -7033,16 +7112,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
         <v>45549</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7051,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7060,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L39">
         <v>3.32</v>
@@ -7072,10 +7151,10 @@
         <v>2.06</v>
       </c>
       <c r="O39" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P39" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>10</v>
@@ -7123,16 +7202,16 @@
         <v>14</v>
       </c>
       <c r="AF39" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AG39" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH39" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI39" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ39">
         <v>6</v>
@@ -7141,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AM39">
         <v>86</v>
@@ -7188,16 +7267,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1">
         <v>45550</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7206,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7215,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L40">
         <v>3.03</v>
@@ -7227,10 +7306,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P40" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q40">
         <v>15</v>
@@ -7278,16 +7357,16 @@
         <v>23</v>
       </c>
       <c r="AF40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AG40" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH40" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI40" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ40">
         <v>8</v>
@@ -7296,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AM40">
         <v>64</v>
@@ -7343,16 +7422,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>45550</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7361,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7370,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L41">
         <v>3.41</v>
@@ -7382,10 +7461,10 @@
         <v>2.1</v>
       </c>
       <c r="O41" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>12</v>
@@ -7433,16 +7512,16 @@
         <v>23</v>
       </c>
       <c r="AF41" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AG41" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH41" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI41" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ41">
         <v>6</v>
@@ -7451,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AM41">
         <v>191</v>
@@ -7498,16 +7577,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1">
         <v>45556</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -7516,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7525,7 +7604,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L42">
         <v>3.59</v>
@@ -7537,10 +7616,10 @@
         <v>1.99</v>
       </c>
       <c r="O42" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>15</v>
@@ -7588,16 +7667,16 @@
         <v>26</v>
       </c>
       <c r="AF42" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI42" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ42">
         <v>7</v>
@@ -7606,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AM42">
         <v>79</v>
@@ -7630,22 +7709,18 @@
         <v>770</v>
       </c>
       <c r="AT42">
-        <f>AO42*AP42</f>
         <v>3500</v>
       </c>
       <c r="AU42">
         <v>33</v>
       </c>
       <c r="AV42">
-        <f>AN42*AO42</f>
         <v>150</v>
       </c>
       <c r="AW42">
-        <f>AO42*AD42</f>
         <v>550</v>
       </c>
       <c r="AX42">
-        <f>AM42*AD42</f>
         <v>869</v>
       </c>
       <c r="AY42">
@@ -7657,16 +7732,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1">
         <v>45556</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -7675,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -7684,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L43">
         <v>1.59</v>
@@ -7696,10 +7771,10 @@
         <v>5.44</v>
       </c>
       <c r="O43" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P43" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -7747,16 +7822,16 @@
         <v>27</v>
       </c>
       <c r="AF43" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH43" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI43" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ43">
         <v>9</v>
@@ -7765,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AM43">
         <v>276</v>
@@ -7789,22 +7864,18 @@
         <v>990</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AT51" si="0">AO43*AP43</f>
         <v>3060</v>
       </c>
       <c r="AU43">
         <v>44</v>
       </c>
       <c r="AV43">
-        <f t="shared" ref="AV43:AV51" si="1">AN43*AO43</f>
         <v>136</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43:AW51" si="2">AO43*AD43</f>
         <v>374</v>
       </c>
       <c r="AX43">
-        <f t="shared" ref="AX43:AX51" si="3">AM43*AD43</f>
         <v>3036</v>
       </c>
       <c r="AY43">
@@ -7816,16 +7887,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>45556</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -7834,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -7843,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L44">
         <v>2.89</v>
@@ -7855,10 +7926,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P44" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q44">
         <v>22</v>
@@ -7906,16 +7977,16 @@
         <v>24</v>
       </c>
       <c r="AF44" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH44" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI44" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ44">
         <v>6</v>
@@ -7924,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AM44">
         <v>163</v>
@@ -7948,22 +8019,18 @@
         <v>360</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="0"/>
         <v>4140</v>
       </c>
       <c r="AU44">
         <v>24</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="3"/>
         <v>978</v>
       </c>
       <c r="AY44">
@@ -7975,16 +8042,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1">
         <v>45556</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -7993,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8002,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L45">
         <v>2.54</v>
@@ -8014,10 +8081,10 @@
         <v>2.88</v>
       </c>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P45" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>12</v>
@@ -8065,16 +8132,16 @@
         <v>23</v>
       </c>
       <c r="AF45" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AG45" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH45" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI45" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ45">
         <v>3</v>
@@ -8083,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AM45">
         <v>85</v>
@@ -8107,22 +8174,18 @@
         <v>210</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="AU45">
         <v>14</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="3"/>
         <v>595</v>
       </c>
       <c r="AY45">
@@ -8134,16 +8197,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1">
         <v>45556</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8152,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -8161,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L46">
         <v>1.28</v>
@@ -8173,10 +8236,10 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P46" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>19</v>
@@ -8224,16 +8287,16 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AG46" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH46" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI46" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ46">
         <v>5</v>
@@ -8242,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="AL46" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="AM46">
         <v>91</v>
@@ -8266,22 +8329,18 @@
         <v>600</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="0"/>
         <v>1150</v>
       </c>
       <c r="AU46">
         <v>36</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="2"/>
         <v>276</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
       <c r="AY46">
@@ -8293,16 +8352,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1">
         <v>45556</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8311,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8320,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L47">
         <v>2.27</v>
@@ -8332,10 +8391,10 @@
         <v>3.24</v>
       </c>
       <c r="O47" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P47" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q47">
         <v>11</v>
@@ -8383,16 +8442,16 @@
         <v>32</v>
       </c>
       <c r="AF47" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AG47" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH47" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI47" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ47">
         <v>8</v>
@@ -8401,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AM47">
         <v>95</v>
@@ -8425,22 +8484,18 @@
         <v>960</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="0"/>
         <v>3040</v>
       </c>
       <c r="AU47">
         <v>24</v>
       </c>
       <c r="AV47">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="AW47">
-        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="AX47">
-        <f t="shared" si="3"/>
         <v>1140</v>
       </c>
       <c r="AY47">
@@ -8452,16 +8507,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1">
         <v>45556</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8470,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -8479,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L48">
         <v>1.55</v>
@@ -8491,10 +8546,10 @@
         <v>5.48</v>
       </c>
       <c r="O48" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P48" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q48">
         <v>23</v>
@@ -8542,16 +8597,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AG48" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH48" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI48" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ48">
         <v>4</v>
@@ -8560,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AM48">
         <v>122</v>
@@ -8584,22 +8639,18 @@
         <v>520</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="AU48">
         <v>52</v>
       </c>
       <c r="AV48">
-        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="AW48">
-        <f t="shared" si="2"/>
         <v>910</v>
       </c>
       <c r="AX48">
-        <f t="shared" si="3"/>
         <v>1586</v>
       </c>
       <c r="AY48">
@@ -8611,16 +8662,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1">
         <v>45556</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8629,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8638,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L49">
         <v>2.92</v>
@@ -8650,10 +8701,10 @@
         <v>2.35</v>
       </c>
       <c r="O49" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P49" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q49">
         <v>9</v>
@@ -8701,16 +8752,16 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AG49" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AH49" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AI49" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8719,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -8743,22 +8794,18 @@
         <v>600</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU49">
         <v>0</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW49">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY49">
@@ -8770,16 +8817,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1">
         <v>45557</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -8788,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -8797,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L50">
         <v>1.79</v>
@@ -8809,10 +8856,10 @@
         <v>4.51</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P50" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q50">
         <v>14</v>
@@ -8860,16 +8907,16 @@
         <v>23</v>
       </c>
       <c r="AF50" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AG50" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH50" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI50" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ50">
         <v>7</v>
@@ -8878,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="AL50" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AM50">
         <v>170</v>
@@ -8902,22 +8949,18 @@
         <v>950</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="0"/>
         <v>8930</v>
       </c>
       <c r="AU50">
         <v>40</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="AW50">
-        <f t="shared" si="2"/>
         <v>940</v>
       </c>
       <c r="AX50">
-        <f t="shared" si="3"/>
         <v>1700</v>
       </c>
       <c r="AY50">
@@ -8929,16 +8972,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1">
         <v>45557</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8947,7 +8990,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8956,7 +8999,7 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L51">
         <v>1.85</v>
@@ -8968,10 +9011,10 @@
         <v>4.54</v>
       </c>
       <c r="O51" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P51" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -9019,16 +9062,16 @@
         <v>17</v>
       </c>
       <c r="AF51" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AG51" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH51" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AI51" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AJ51">
         <v>7</v>
@@ -9037,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="AM51">
         <v>166</v>
@@ -9061,26 +9104,1612 @@
         <v>950</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="0"/>
         <v>5035</v>
       </c>
       <c r="AU51">
         <v>40</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="1"/>
         <v>212</v>
       </c>
       <c r="AW51">
-        <f t="shared" si="2"/>
         <v>530</v>
       </c>
       <c r="AX51">
-        <f t="shared" si="3"/>
         <v>1660</v>
       </c>
       <c r="AY51">
         <v>3800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>5.18</v>
+      </c>
+      <c r="M52">
+        <v>4.54</v>
+      </c>
+      <c r="N52">
+        <v>1.6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>136</v>
+      </c>
+      <c r="P52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>16</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>4</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>5</v>
+      </c>
+      <c r="Z52">
+        <v>6</v>
+      </c>
+      <c r="AA52">
+        <v>14</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>11</v>
+      </c>
+      <c r="AE52">
+        <v>24</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ52">
+        <v>8</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM52">
+        <v>93</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>34</v>
+      </c>
+      <c r="AP52">
+        <v>80</v>
+      </c>
+      <c r="AQ52">
+        <v>1600</v>
+      </c>
+      <c r="AR52">
+        <v>160</v>
+      </c>
+      <c r="AS52">
+        <v>880</v>
+      </c>
+      <c r="AT52">
+        <f>AO52*AP52</f>
+        <v>2720</v>
+      </c>
+      <c r="AU52">
+        <v>22</v>
+      </c>
+      <c r="AV52">
+        <f>AN52*AO52</f>
+        <v>68</v>
+      </c>
+      <c r="AW52">
+        <f>AO52*AD52</f>
+        <v>374</v>
+      </c>
+      <c r="AX52">
+        <f>AM52*AD52</f>
+        <v>1023</v>
+      </c>
+      <c r="AY52">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53">
+        <v>1.18</v>
+      </c>
+      <c r="M53">
+        <v>8.27</v>
+      </c>
+      <c r="N53">
+        <v>14.09</v>
+      </c>
+      <c r="O53" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q53">
+        <v>36</v>
+      </c>
+      <c r="R53">
+        <v>16</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>17</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>11</v>
+      </c>
+      <c r="AB53">
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <v>6</v>
+      </c>
+      <c r="AD53">
+        <v>17</v>
+      </c>
+      <c r="AE53">
+        <v>17</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ53">
+        <v>6</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM53">
+        <v>355</v>
+      </c>
+      <c r="AN53">
+        <v>6</v>
+      </c>
+      <c r="AO53">
+        <v>69</v>
+      </c>
+      <c r="AP53">
+        <v>60</v>
+      </c>
+      <c r="AQ53">
+        <v>800</v>
+      </c>
+      <c r="AR53">
+        <v>360</v>
+      </c>
+      <c r="AS53">
+        <v>1020</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" ref="AT53:AT61" si="0">AO53*AP53</f>
+        <v>4140</v>
+      </c>
+      <c r="AU53">
+        <v>102</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" ref="AV53:AV61" si="1">AN53*AO53</f>
+        <v>414</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" ref="AW53:AW61" si="2">AO53*AD53</f>
+        <v>1173</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" ref="AX53:AX61" si="3">AM53*AD53</f>
+        <v>6035</v>
+      </c>
+      <c r="AY53">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54">
+        <v>2.23</v>
+      </c>
+      <c r="M54">
+        <v>3.63</v>
+      </c>
+      <c r="N54">
+        <v>3.22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>135</v>
+      </c>
+      <c r="P54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54">
+        <v>8</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>19</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>7</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AB54">
+        <v>11</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>14</v>
+      </c>
+      <c r="AE54">
+        <v>13</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM54">
+        <v>55</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>47</v>
+      </c>
+      <c r="AP54">
+        <v>50</v>
+      </c>
+      <c r="AQ54">
+        <v>600</v>
+      </c>
+      <c r="AR54">
+        <v>100</v>
+      </c>
+      <c r="AS54">
+        <v>700</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>2350</v>
+      </c>
+      <c r="AU54">
+        <v>28</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="AY54">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55">
+        <v>1.75</v>
+      </c>
+      <c r="M55">
+        <v>4.3</v>
+      </c>
+      <c r="N55">
+        <v>4.32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q55">
+        <v>15</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>15</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>8</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>11</v>
+      </c>
+      <c r="AB55">
+        <v>8</v>
+      </c>
+      <c r="AC55">
+        <v>6</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>19</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ55">
+        <v>5</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM55">
+        <v>162</v>
+      </c>
+      <c r="AN55">
+        <v>6</v>
+      </c>
+      <c r="AO55">
+        <v>114</v>
+      </c>
+      <c r="AP55">
+        <v>50</v>
+      </c>
+      <c r="AQ55">
+        <v>600</v>
+      </c>
+      <c r="AR55">
+        <v>300</v>
+      </c>
+      <c r="AS55">
+        <v>500</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="AU55">
+        <v>60</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="1"/>
+        <v>684</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="3"/>
+        <v>1620</v>
+      </c>
+      <c r="AY55">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56">
+        <v>2.76</v>
+      </c>
+      <c r="M56">
+        <v>3.35</v>
+      </c>
+      <c r="N56">
+        <v>2.69</v>
+      </c>
+      <c r="O56" t="s">
+        <v>136</v>
+      </c>
+      <c r="P56" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q56">
+        <v>8</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>17</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+      <c r="AA56">
+        <v>13</v>
+      </c>
+      <c r="AB56">
+        <v>11</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>13</v>
+      </c>
+      <c r="AE56">
+        <v>24</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ56">
+        <v>3</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM56">
+        <v>111</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>20</v>
+      </c>
+      <c r="AP56">
+        <v>30</v>
+      </c>
+      <c r="AQ56">
+        <v>200</v>
+      </c>
+      <c r="AR56">
+        <v>90</v>
+      </c>
+      <c r="AS56">
+        <v>390</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="AU56">
+        <v>39</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="3"/>
+        <v>1443</v>
+      </c>
+      <c r="AY56">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M57">
+        <v>3.32</v>
+      </c>
+      <c r="N57">
+        <v>3.03</v>
+      </c>
+      <c r="O57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>14</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>6</v>
+      </c>
+      <c r="Z57">
+        <v>5</v>
+      </c>
+      <c r="AA57">
+        <v>11</v>
+      </c>
+      <c r="AB57">
+        <v>15</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57">
+        <v>26</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ57">
+        <v>6</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM57">
+        <v>51</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>7</v>
+      </c>
+      <c r="AP57">
+        <v>60</v>
+      </c>
+      <c r="AQ57">
+        <v>800</v>
+      </c>
+      <c r="AR57">
+        <v>60</v>
+      </c>
+      <c r="AS57">
+        <v>660</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="AU57">
+        <v>11</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="3"/>
+        <v>561</v>
+      </c>
+      <c r="AY57">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58">
+        <v>8.09</v>
+      </c>
+      <c r="M58">
+        <v>5.63</v>
+      </c>
+      <c r="N58">
+        <v>1.36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q58">
+        <v>8</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>6</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>10</v>
+      </c>
+      <c r="AA58">
+        <v>16</v>
+      </c>
+      <c r="AB58">
+        <v>8</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>12</v>
+      </c>
+      <c r="AE58">
+        <v>24</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ58">
+        <v>5</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM58">
+        <v>162</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>19</v>
+      </c>
+      <c r="AP58">
+        <v>50</v>
+      </c>
+      <c r="AQ58">
+        <v>600</v>
+      </c>
+      <c r="AR58">
+        <v>150</v>
+      </c>
+      <c r="AS58">
+        <v>600</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="AU58">
+        <v>36</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="3"/>
+        <v>1944</v>
+      </c>
+      <c r="AY58">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>4.34</v>
+      </c>
+      <c r="M59">
+        <v>3.77</v>
+      </c>
+      <c r="N59">
+        <v>1.85</v>
+      </c>
+      <c r="O59" t="s">
+        <v>141</v>
+      </c>
+      <c r="P59" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q59">
+        <v>15</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>7</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
+      </c>
+      <c r="AB59">
+        <v>14</v>
+      </c>
+      <c r="AC59">
+        <v>4</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>24</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ59">
+        <v>5</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM59">
+        <v>127</v>
+      </c>
+      <c r="AN59">
+        <v>4</v>
+      </c>
+      <c r="AO59">
+        <v>76</v>
+      </c>
+      <c r="AP59">
+        <v>50</v>
+      </c>
+      <c r="AQ59">
+        <v>400</v>
+      </c>
+      <c r="AR59">
+        <v>200</v>
+      </c>
+      <c r="AS59">
+        <v>500</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="AU59">
+        <v>40</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="3"/>
+        <v>1270</v>
+      </c>
+      <c r="AY59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60">
+        <v>2.42</v>
+      </c>
+      <c r="M60">
+        <v>3.9</v>
+      </c>
+      <c r="N60">
+        <v>2.75</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q60">
+        <v>11</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>24</v>
+      </c>
+      <c r="T60">
+        <v>10</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>3</v>
+      </c>
+      <c r="AA60">
+        <v>16</v>
+      </c>
+      <c r="AB60">
+        <v>14</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>30</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ60">
+        <v>8</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM60">
+        <v>127</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>62</v>
+      </c>
+      <c r="AP60">
+        <v>105</v>
+      </c>
+      <c r="AQ60">
+        <v>2250</v>
+      </c>
+      <c r="AR60">
+        <v>315</v>
+      </c>
+      <c r="AS60">
+        <v>840</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>6510</v>
+      </c>
+      <c r="AU60">
+        <v>24</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>1016</v>
+      </c>
+      <c r="AY60">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61">
+        <v>1.65</v>
+      </c>
+      <c r="M61">
+        <v>4.37</v>
+      </c>
+      <c r="N61">
+        <v>5.01</v>
+      </c>
+      <c r="O61" t="s">
+        <v>144</v>
+      </c>
+      <c r="P61" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q61">
+        <v>14</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>9</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>5</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>7</v>
+      </c>
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AA61">
+        <v>19</v>
+      </c>
+      <c r="AB61">
+        <v>12</v>
+      </c>
+      <c r="AC61">
+        <v>4</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>31</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ61">
+        <v>7</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM61">
+        <v>139</v>
+      </c>
+      <c r="AN61">
+        <v>4</v>
+      </c>
+      <c r="AO61">
+        <v>50</v>
+      </c>
+      <c r="AP61">
+        <v>70</v>
+      </c>
+      <c r="AQ61">
+        <v>1000</v>
+      </c>
+      <c r="AR61">
+        <v>280</v>
+      </c>
+      <c r="AS61">
+        <v>770</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="AU61">
+        <v>44</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="3"/>
+        <v>1529</v>
+      </c>
+      <c r="AY61">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>

--- a/E0_spread.xlsx
+++ b/E0_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF62EE-5450-4D5C-A656-FEA1C74E3732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D524C7B-4C67-4C7E-BA3D-87D9B86627E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="315">
   <si>
     <t>Div</t>
   </si>
@@ -360,6 +360,66 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -489,6 +549,9 @@
     <t>3-2</t>
   </si>
   <si>
+    <t>5-3</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -504,9 +567,6 @@
     <t>3-12</t>
   </si>
   <si>
-    <t>5-3</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -627,6 +687,48 @@
     <t>7-4</t>
   </si>
   <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>13-5</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -811,6 +913,66 @@
   </si>
   <si>
     <t>Bournemouth-Southampton</t>
+  </si>
+  <si>
+    <t>Crystal Palace-Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal-Southampton</t>
+  </si>
+  <si>
+    <t>Brentford-Wolves</t>
+  </si>
+  <si>
+    <t>Leicester-Bournemouth</t>
+  </si>
+  <si>
+    <t>Man City-Fulham</t>
+  </si>
+  <si>
+    <t>West Ham-Ipswich</t>
+  </si>
+  <si>
+    <t>Everton-Newcastle</t>
+  </si>
+  <si>
+    <t>Aston Villa-Man United</t>
+  </si>
+  <si>
+    <t>Chelsea-Nottm Forest</t>
+  </si>
+  <si>
+    <t>Brighton-Tottenham</t>
+  </si>
+  <si>
+    <t>Tottenham-West Ham</t>
+  </si>
+  <si>
+    <t>Fulham-Aston Villa</t>
+  </si>
+  <si>
+    <t>Ipswich-Everton</t>
+  </si>
+  <si>
+    <t>Man United-Brentford</t>
+  </si>
+  <si>
+    <t>Newcastle-Brighton</t>
+  </si>
+  <si>
+    <t>Southampton-Leicester</t>
+  </si>
+  <si>
+    <t>Bournemouth-Arsenal</t>
+  </si>
+  <si>
+    <t>Wolves-Man City</t>
+  </si>
+  <si>
+    <t>Liverpool-Chelsea</t>
+  </si>
+  <si>
+    <t>Nottm Forest-Crystal Palace</t>
   </si>
 </sst>
 </file>
@@ -1166,58 +1328,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO62" sqref="AO62"/>
+      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1377,16 +1541,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1395,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1404,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L2">
         <v>1.63</v>
@@ -1416,10 +1580,10 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -1467,16 +1631,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AG2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1485,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AM2">
         <v>87</v>
@@ -1532,16 +1696,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1550,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1559,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L3">
         <v>8.18</v>
@@ -1571,10 +1735,10 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1622,16 +1786,16 @@
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG3" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1640,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="AM3">
         <v>125</v>
@@ -1687,16 +1851,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1705,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1714,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L4">
         <v>1.1599999999999999</v>
@@ -1726,10 +1890,10 @@
         <v>16.22</v>
       </c>
       <c r="O4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>18</v>
@@ -1777,16 +1941,16 @@
         <v>31</v>
       </c>
       <c r="AF4" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AG4" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH4" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI4" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1795,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AM4">
         <v>99</v>
@@ -1842,16 +2006,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1860,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1869,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L5">
         <v>2.73</v>
@@ -1881,10 +2045,10 @@
         <v>2.71</v>
       </c>
       <c r="O5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1932,16 +2096,16 @@
         <v>16</v>
       </c>
       <c r="AF5" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AG5" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH5" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI5" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1950,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="AM5">
         <v>167</v>
@@ -1997,16 +2161,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>45521</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2015,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2024,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L6">
         <v>1.35</v>
@@ -2036,10 +2200,10 @@
         <v>8.25</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2087,16 +2251,16 @@
         <v>31</v>
       </c>
       <c r="AF6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AG6" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH6" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI6" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ6">
         <v>6</v>
@@ -2105,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AM6">
         <v>45</v>
@@ -2152,16 +2316,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1">
         <v>45521</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2170,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2179,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L7">
         <v>2.4700000000000002</v>
@@ -2191,10 +2355,10 @@
         <v>2.97</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>14</v>
@@ -2242,16 +2406,16 @@
         <v>25</v>
       </c>
       <c r="AF7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AG7" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH7" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI7" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ7">
         <v>4</v>
@@ -2260,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AM7">
         <v>109</v>
@@ -2307,16 +2471,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1">
         <v>45521</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2325,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2334,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L8">
         <v>2.4900000000000002</v>
@@ -2346,10 +2510,10 @@
         <v>2.8</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2397,16 +2561,16 @@
         <v>29</v>
       </c>
       <c r="AF8" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AG8" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH8" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI8" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ8">
         <v>3</v>
@@ -2415,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="AM8">
         <v>120</v>
@@ -2462,16 +2626,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2480,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2489,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -2501,10 +2665,10 @@
         <v>2.95</v>
       </c>
       <c r="O9" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2552,16 +2716,16 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="AG9" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH9" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI9" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -2570,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="AM9">
         <v>161</v>
@@ -2617,16 +2781,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2635,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2644,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L10">
         <v>4.1900000000000004</v>
@@ -2656,10 +2820,10 @@
         <v>1.84</v>
       </c>
       <c r="O10" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -2707,16 +2871,16 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AG10" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH10" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI10" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ10">
         <v>2</v>
@@ -2725,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="AM10">
         <v>102</v>
@@ -2772,16 +2936,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1">
         <v>45523</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2790,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2799,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L11">
         <v>5.09</v>
@@ -2811,10 +2975,10 @@
         <v>1.63</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2862,16 +3026,16 @@
         <v>23</v>
       </c>
       <c r="AF11" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AG11" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH11" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI11" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ11">
         <v>2</v>
@@ -2880,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AM11">
         <v>86</v>
@@ -2927,16 +3091,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2945,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2954,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L12">
         <v>2.5099999999999998</v>
@@ -2966,10 +3130,10 @@
         <v>2.76</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -3017,16 +3181,16 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AG12" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH12" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI12" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ12">
         <v>3</v>
@@ -3035,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="AM12">
         <v>182</v>
@@ -3082,16 +3246,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3100,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3109,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L13">
         <v>2.17</v>
@@ -3121,10 +3285,10 @@
         <v>3.33</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>14</v>
@@ -3172,16 +3336,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="AG13" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH13" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI13" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ13">
         <v>2</v>
@@ -3190,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AM13">
         <v>139</v>
@@ -3237,16 +3401,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3255,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3264,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L14">
         <v>1.84</v>
@@ -3276,10 +3440,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3327,16 +3491,16 @@
         <v>27</v>
       </c>
       <c r="AF14" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH14" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI14" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ14">
         <v>4</v>
@@ -3345,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="AM14">
         <v>126</v>
@@ -3392,16 +3556,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>45528</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -3410,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -3419,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L15">
         <v>1.08</v>
@@ -3431,10 +3595,10 @@
         <v>25.71</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>14</v>
@@ -3482,16 +3646,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH15" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI15" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ15">
         <v>5</v>
@@ -3500,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="AM15">
         <v>137</v>
@@ -3547,16 +3711,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1">
         <v>45528</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3565,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3574,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L16">
         <v>2.59</v>
@@ -3586,10 +3750,10 @@
         <v>2.92</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -3637,16 +3801,16 @@
         <v>28</v>
       </c>
       <c r="AF16" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH16" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI16" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ16">
         <v>6</v>
@@ -3655,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="AM16">
         <v>70</v>
@@ -3702,16 +3866,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1">
         <v>45528</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -3720,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -3729,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L17">
         <v>1.45</v>
@@ -3741,10 +3905,10 @@
         <v>7.03</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -3792,16 +3956,16 @@
         <v>26</v>
       </c>
       <c r="AF17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH17" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI17" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3810,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="AM17">
         <v>187</v>
@@ -3857,16 +4021,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1">
         <v>45528</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3875,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3884,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L18">
         <v>4.55</v>
@@ -3896,10 +4060,10 @@
         <v>1.77</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -3947,16 +4111,16 @@
         <v>23</v>
       </c>
       <c r="AF18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH18" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI18" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ18">
         <v>4</v>
@@ -3965,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="AM18">
         <v>141</v>
@@ -4012,16 +4176,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4030,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4039,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L19">
         <v>3.05</v>
@@ -4051,10 +4215,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -4102,16 +4266,16 @@
         <v>27</v>
       </c>
       <c r="AF19" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH19" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI19" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ19">
         <v>4</v>
@@ -4120,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AM19">
         <v>113</v>
@@ -4167,16 +4331,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>45529</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -4185,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -4194,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L20">
         <v>4.46</v>
@@ -4206,10 +4370,10 @@
         <v>1.78</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>12</v>
@@ -4257,16 +4421,16 @@
         <v>26</v>
       </c>
       <c r="AF20" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH20" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI20" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4275,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AM20">
         <v>369</v>
@@ -4322,16 +4486,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>45529</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -4340,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4349,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L21">
         <v>1.25</v>
@@ -4361,10 +4525,10 @@
         <v>10.11</v>
       </c>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -4412,16 +4576,16 @@
         <v>17</v>
       </c>
       <c r="AF21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH21" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI21" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4430,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="AM21">
         <v>83</v>
@@ -4477,16 +4641,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4495,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4504,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L22">
         <v>1.34</v>
@@ -4516,10 +4680,10 @@
         <v>8.1</v>
       </c>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4567,16 +4731,16 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH22" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI22" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ22">
         <v>5</v>
@@ -4585,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="AL22" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="AM22">
         <v>96</v>
@@ -4632,16 +4796,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -4650,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4659,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L23">
         <v>1.79</v>
@@ -4671,10 +4835,10 @@
         <v>4.51</v>
       </c>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>20</v>
@@ -4722,16 +4886,16 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH23" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI23" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ23">
         <v>3</v>
@@ -4740,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="AM23">
         <v>267</v>
@@ -4787,16 +4951,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1">
         <v>45535</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -4805,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4814,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L24">
         <v>2.82</v>
@@ -4826,10 +4990,10 @@
         <v>2.62</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>18</v>
@@ -4877,16 +5041,16 @@
         <v>7</v>
       </c>
       <c r="AF24" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH24" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI24" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4895,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AM24">
         <v>374</v>
@@ -4942,16 +5106,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1">
         <v>45535</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4960,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4969,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L25">
         <v>3.14</v>
@@ -4981,10 +5145,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -5032,16 +5196,16 @@
         <v>30</v>
       </c>
       <c r="AF25" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH25" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI25" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ25">
         <v>5</v>
@@ -5050,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AM25">
         <v>47</v>
@@ -5097,16 +5261,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
         <v>45535</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5115,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5124,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L26">
         <v>4.8</v>
@@ -5136,10 +5300,10 @@
         <v>1.71</v>
       </c>
       <c r="O26" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -5187,16 +5351,16 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH26" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI26" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ26">
         <v>9</v>
@@ -5205,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="AM26">
         <v>164</v>
@@ -5252,16 +5416,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1">
         <v>45535</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5270,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5279,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L27">
         <v>2.02</v>
@@ -5291,10 +5455,10 @@
         <v>3.71</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>16</v>
@@ -5342,16 +5506,16 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH27" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI27" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ27">
         <v>7</v>
@@ -5360,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AM27">
         <v>22</v>
@@ -5407,16 +5571,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1">
         <v>45535</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5425,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5434,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L28">
         <v>7.69</v>
@@ -5446,10 +5610,10 @@
         <v>1.37</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5497,16 +5661,16 @@
         <v>13</v>
       </c>
       <c r="AF28" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH28" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI28" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5515,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="AM28">
         <v>142</v>
@@ -5562,16 +5726,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5580,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5589,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L29">
         <v>1.63</v>
@@ -5601,10 +5765,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="O29" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -5652,16 +5816,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH29" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI29" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ29">
         <v>6</v>
@@ -5670,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="AM29">
         <v>78</v>
@@ -5717,16 +5881,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1">
         <v>45536</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5735,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5744,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L30">
         <v>2.5</v>
@@ -5756,10 +5920,10 @@
         <v>2.62</v>
       </c>
       <c r="O30" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -5807,16 +5971,16 @@
         <v>29</v>
       </c>
       <c r="AF30" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH30" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI30" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ30">
         <v>8</v>
@@ -5825,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="AM30">
         <v>171</v>
@@ -5872,16 +6036,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5890,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5899,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L31">
         <v>3.93</v>
@@ -5911,10 +6075,10 @@
         <v>1.82</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -5962,16 +6126,16 @@
         <v>14</v>
       </c>
       <c r="AF31" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH31" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI31" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ31">
         <v>5</v>
@@ -5980,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AM31">
         <v>133</v>
@@ -6027,16 +6191,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -6045,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6054,7 +6218,7 @@
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L32">
         <v>4.5</v>
@@ -6066,10 +6230,10 @@
         <v>1.74</v>
       </c>
       <c r="O32" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -6117,16 +6281,16 @@
         <v>25</v>
       </c>
       <c r="AF32" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH32" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI32" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6135,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="AL32" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="AM32">
         <v>166</v>
@@ -6182,16 +6346,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1">
         <v>45549</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -6200,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6209,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L33">
         <v>1.38</v>
@@ -6221,10 +6385,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>21</v>
@@ -6272,16 +6436,16 @@
         <v>30</v>
       </c>
       <c r="AF33" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH33" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI33" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ33">
         <v>7</v>
@@ -6290,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6337,16 +6501,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1">
         <v>45549</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -6355,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6364,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L34">
         <v>1.62</v>
@@ -6376,10 +6540,10 @@
         <v>5.48</v>
       </c>
       <c r="O34" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>20</v>
@@ -6427,16 +6591,16 @@
         <v>26</v>
       </c>
       <c r="AF34" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AG34" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH34" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI34" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ34">
         <v>3</v>
@@ -6445,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="AM34">
         <v>204</v>
@@ -6492,16 +6656,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1">
         <v>45549</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6510,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6519,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L35">
         <v>2.4</v>
@@ -6531,10 +6695,10 @@
         <v>2.97</v>
       </c>
       <c r="O35" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>21</v>
@@ -6582,16 +6746,16 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH35" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI35" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6600,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AM35">
         <v>114</v>
@@ -6647,16 +6811,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1">
         <v>45549</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -6665,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6674,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L36">
         <v>1.21</v>
@@ -6686,10 +6850,10 @@
         <v>12.71</v>
       </c>
       <c r="O36" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6737,16 +6901,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AG36" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH36" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI36" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ36">
         <v>8</v>
@@ -6755,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="AM36">
         <v>72</v>
@@ -6802,16 +6966,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1">
         <v>45549</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -6820,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6829,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L37">
         <v>1.17</v>
@@ -6841,10 +7005,10 @@
         <v>14.62</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>18</v>
@@ -6892,16 +7056,16 @@
         <v>12</v>
       </c>
       <c r="AF37" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH37" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI37" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ37">
         <v>4</v>
@@ -6910,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AM37">
         <v>52</v>
@@ -6957,16 +7121,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1">
         <v>45549</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -6975,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -6984,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L38">
         <v>1.51</v>
@@ -6996,10 +7160,10 @@
         <v>6.48</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>17</v>
@@ -7047,16 +7211,16 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH38" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI38" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ38">
         <v>5</v>
@@ -7065,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="AM38">
         <v>213</v>
@@ -7112,16 +7276,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1">
         <v>45549</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -7130,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7139,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L39">
         <v>3.32</v>
@@ -7151,10 +7315,10 @@
         <v>2.06</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>10</v>
@@ -7202,16 +7366,16 @@
         <v>14</v>
       </c>
       <c r="AF39" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AG39" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH39" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI39" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ39">
         <v>6</v>
@@ -7220,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="AM39">
         <v>86</v>
@@ -7267,16 +7431,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1">
         <v>45550</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -7285,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7294,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L40">
         <v>3.03</v>
@@ -7306,10 +7470,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O40" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>15</v>
@@ -7357,16 +7521,16 @@
         <v>23</v>
       </c>
       <c r="AF40" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AG40" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH40" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI40" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ40">
         <v>8</v>
@@ -7375,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AM40">
         <v>64</v>
@@ -7422,16 +7586,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1">
         <v>45550</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7440,7 +7604,7 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7449,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L41">
         <v>3.41</v>
@@ -7461,10 +7625,10 @@
         <v>2.1</v>
       </c>
       <c r="O41" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>12</v>
@@ -7512,16 +7676,16 @@
         <v>23</v>
       </c>
       <c r="AF41" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH41" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI41" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ41">
         <v>6</v>
@@ -7530,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AM41">
         <v>191</v>
@@ -7577,16 +7741,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1">
         <v>45556</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -7595,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7604,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L42">
         <v>3.59</v>
@@ -7616,10 +7780,10 @@
         <v>1.99</v>
       </c>
       <c r="O42" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>15</v>
@@ -7667,16 +7831,16 @@
         <v>26</v>
       </c>
       <c r="AF42" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG42" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH42" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI42" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ42">
         <v>7</v>
@@ -7685,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="AM42">
         <v>79</v>
@@ -7732,16 +7896,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1">
         <v>45556</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -7750,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -7759,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L43">
         <v>1.59</v>
@@ -7771,10 +7935,10 @@
         <v>5.44</v>
       </c>
       <c r="O43" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -7822,16 +7986,16 @@
         <v>27</v>
       </c>
       <c r="AF43" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG43" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH43" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI43" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ43">
         <v>9</v>
@@ -7840,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="AM43">
         <v>276</v>
@@ -7887,16 +8051,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1">
         <v>45556</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -7905,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -7914,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L44">
         <v>2.89</v>
@@ -7926,10 +8090,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O44" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P44" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>22</v>
@@ -7977,16 +8141,16 @@
         <v>24</v>
       </c>
       <c r="AF44" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AG44" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH44" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI44" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ44">
         <v>6</v>
@@ -7995,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AM44">
         <v>163</v>
@@ -8042,16 +8206,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1">
         <v>45556</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -8060,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8069,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L45">
         <v>2.54</v>
@@ -8081,10 +8245,10 @@
         <v>2.88</v>
       </c>
       <c r="O45" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>12</v>
@@ -8132,16 +8296,16 @@
         <v>23</v>
       </c>
       <c r="AF45" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH45" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI45" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ45">
         <v>3</v>
@@ -8150,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="AM45">
         <v>85</v>
@@ -8197,16 +8361,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1">
         <v>45556</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8215,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -8224,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L46">
         <v>1.28</v>
@@ -8236,10 +8400,10 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="O46" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>19</v>
@@ -8287,16 +8451,16 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG46" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH46" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI46" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ46">
         <v>5</v>
@@ -8305,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="AL46" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AM46">
         <v>91</v>
@@ -8352,16 +8516,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>45556</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8370,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8379,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L47">
         <v>2.27</v>
@@ -8391,10 +8555,10 @@
         <v>3.24</v>
       </c>
       <c r="O47" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>11</v>
@@ -8442,16 +8606,16 @@
         <v>32</v>
       </c>
       <c r="AF47" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG47" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH47" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI47" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ47">
         <v>8</v>
@@ -8460,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="AM47">
         <v>95</v>
@@ -8507,16 +8671,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>45556</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8525,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -8534,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L48">
         <v>1.55</v>
@@ -8546,10 +8710,10 @@
         <v>5.48</v>
       </c>
       <c r="O48" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>23</v>
@@ -8597,16 +8761,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG48" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH48" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI48" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ48">
         <v>4</v>
@@ -8615,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="AM48">
         <v>122</v>
@@ -8662,16 +8826,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1">
         <v>45556</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8680,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8689,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L49">
         <v>2.92</v>
@@ -8701,10 +8865,10 @@
         <v>2.35</v>
       </c>
       <c r="O49" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>9</v>
@@ -8752,16 +8916,16 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AG49" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH49" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI49" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ49">
         <v>4</v>
@@ -8770,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -8817,16 +8981,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1">
         <v>45557</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -8835,7 +8999,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -8844,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L50">
         <v>1.79</v>
@@ -8856,10 +9020,10 @@
         <v>4.51</v>
       </c>
       <c r="O50" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>14</v>
@@ -8907,16 +9071,16 @@
         <v>23</v>
       </c>
       <c r="AF50" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AG50" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH50" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI50" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ50">
         <v>7</v>
@@ -8925,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="AL50" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AM50">
         <v>170</v>
@@ -8972,16 +9136,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1">
         <v>45557</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8990,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8999,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L51">
         <v>1.85</v>
@@ -9011,10 +9175,10 @@
         <v>4.54</v>
       </c>
       <c r="O51" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -9062,16 +9226,16 @@
         <v>17</v>
       </c>
       <c r="AF51" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AG51" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH51" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI51" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ51">
         <v>7</v>
@@ -9080,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AM51">
         <v>166</v>
@@ -9127,16 +9291,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
         <v>45563</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9145,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -9154,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L52">
         <v>5.18</v>
@@ -9166,10 +9330,10 @@
         <v>1.6</v>
       </c>
       <c r="O52" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P52" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>11</v>
@@ -9217,16 +9381,16 @@
         <v>24</v>
       </c>
       <c r="AF52" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AG52" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH52" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI52" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ52">
         <v>8</v>
@@ -9235,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AM52">
         <v>93</v>
@@ -9259,22 +9423,18 @@
         <v>880</v>
       </c>
       <c r="AT52">
-        <f>AO52*AP52</f>
         <v>2720</v>
       </c>
       <c r="AU52">
         <v>22</v>
       </c>
       <c r="AV52">
-        <f>AN52*AO52</f>
         <v>68</v>
       </c>
       <c r="AW52">
-        <f>AO52*AD52</f>
         <v>374</v>
       </c>
       <c r="AX52">
-        <f>AM52*AD52</f>
         <v>1023</v>
       </c>
       <c r="AY52">
@@ -9286,16 +9446,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1">
         <v>45563</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -9304,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -9313,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L53">
         <v>1.18</v>
@@ -9325,10 +9485,10 @@
         <v>14.09</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>36</v>
@@ -9376,16 +9536,16 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AG53" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH53" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI53" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ53">
         <v>6</v>
@@ -9394,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AM53">
         <v>355</v>
@@ -9418,22 +9578,18 @@
         <v>1020</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT61" si="0">AO53*AP53</f>
         <v>4140</v>
       </c>
       <c r="AU53">
         <v>102</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV61" si="1">AN53*AO53</f>
         <v>414</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW61" si="2">AO53*AD53</f>
         <v>1173</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX61" si="3">AM53*AD53</f>
         <v>6035</v>
       </c>
       <c r="AY53">
@@ -9445,16 +9601,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1">
         <v>45563</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -9463,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9472,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L54">
         <v>2.23</v>
@@ -9484,10 +9640,10 @@
         <v>3.22</v>
       </c>
       <c r="O54" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P54" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -9535,16 +9691,16 @@
         <v>13</v>
       </c>
       <c r="AF54" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AG54" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH54" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI54" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ54">
         <v>5</v>
@@ -9553,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AM54">
         <v>55</v>
@@ -9577,22 +9733,18 @@
         <v>700</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="0"/>
         <v>2350</v>
       </c>
       <c r="AU54">
         <v>28</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="2"/>
         <v>658</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="AY54">
@@ -9604,16 +9756,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1">
         <v>45563</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -9622,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -9631,7 +9783,7 @@
         <v>2</v>
       </c>
       <c r="K55" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L55">
         <v>1.75</v>
@@ -9643,10 +9795,10 @@
         <v>4.32</v>
       </c>
       <c r="O55" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="P55" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>15</v>
@@ -9694,16 +9846,16 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AG55" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH55" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI55" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ55">
         <v>5</v>
@@ -9712,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AM55">
         <v>162</v>
@@ -9736,22 +9888,18 @@
         <v>500</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="0"/>
         <v>5700</v>
       </c>
       <c r="AU55">
         <v>60</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="1"/>
         <v>684</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="AX55">
-        <f t="shared" si="3"/>
         <v>1620</v>
       </c>
       <c r="AY55">
@@ -9763,16 +9911,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1">
         <v>45563</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -9781,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -9790,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L56">
         <v>2.76</v>
@@ -9802,10 +9950,10 @@
         <v>2.69</v>
       </c>
       <c r="O56" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P56" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -9853,16 +10001,16 @@
         <v>24</v>
       </c>
       <c r="AF56" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AG56" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH56" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI56" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ56">
         <v>3</v>
@@ -9871,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="AL56" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AM56">
         <v>111</v>
@@ -9895,22 +10043,18 @@
         <v>390</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="AU56">
         <v>39</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="3"/>
         <v>1443</v>
       </c>
       <c r="AY56">
@@ -9922,16 +10066,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1">
         <v>45563</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -9940,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -9949,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L57">
         <v>2.4900000000000002</v>
@@ -9961,10 +10105,10 @@
         <v>3.03</v>
       </c>
       <c r="O57" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>11</v>
@@ -10012,16 +10156,16 @@
         <v>26</v>
       </c>
       <c r="AF57" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG57" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AH57" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AI57" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ57">
         <v>6</v>
@@ -10030,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AM57">
         <v>51</v>
@@ -10054,22 +10198,18 @@
         <v>660</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="AU57">
         <v>11</v>
       </c>
       <c r="AV57">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW57">
-        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="AX57">
-        <f t="shared" si="3"/>
         <v>561</v>
       </c>
       <c r="AY57">
@@ -10081,16 +10221,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1">
         <v>45563</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -10099,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -10108,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L58">
         <v>8.09</v>
@@ -10120,10 +10260,10 @@
         <v>1.36</v>
       </c>
       <c r="O58" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P58" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -10171,16 +10311,16 @@
         <v>24</v>
       </c>
       <c r="AF58" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG58" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH58" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI58" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ58">
         <v>5</v>
@@ -10189,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="AM58">
         <v>162</v>
@@ -10213,22 +10353,18 @@
         <v>600</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="AU58">
         <v>36</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="2"/>
         <v>228</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="3"/>
         <v>1944</v>
       </c>
       <c r="AY58">
@@ -10240,16 +10376,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1">
         <v>45564</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -10258,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10267,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L59">
         <v>4.34</v>
@@ -10279,10 +10415,10 @@
         <v>1.85</v>
       </c>
       <c r="O59" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P59" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>15</v>
@@ -10330,16 +10466,16 @@
         <v>24</v>
       </c>
       <c r="AF59" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AG59" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH59" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI59" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ59">
         <v>5</v>
@@ -10348,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="AM59">
         <v>127</v>
@@ -10372,22 +10508,18 @@
         <v>500</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
       <c r="AU59">
         <v>40</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="2"/>
         <v>760</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="3"/>
         <v>1270</v>
       </c>
       <c r="AY59">
@@ -10399,16 +10531,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1">
         <v>45564</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -10417,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -10426,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="L60">
         <v>2.42</v>
@@ -10438,10 +10570,10 @@
         <v>2.75</v>
       </c>
       <c r="O60" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>11</v>
@@ -10489,16 +10621,16 @@
         <v>30</v>
       </c>
       <c r="AF60" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AG60" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH60" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI60" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AJ60">
         <v>8</v>
@@ -10507,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="AL60" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="AM60">
         <v>127</v>
@@ -10531,22 +10663,18 @@
         <v>840</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="0"/>
         <v>6510</v>
       </c>
       <c r="AU60">
         <v>24</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="2"/>
         <v>496</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="3"/>
         <v>1016</v>
       </c>
       <c r="AY60">
@@ -10558,16 +10686,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1">
         <v>45565</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -10576,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -10585,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L61">
         <v>1.65</v>
@@ -10597,10 +10725,10 @@
         <v>5.01</v>
       </c>
       <c r="O61" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>14</v>
@@ -10648,16 +10776,16 @@
         <v>31</v>
       </c>
       <c r="AF61" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AG61" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AH61" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AI61" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AJ61">
         <v>7</v>
@@ -10666,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AL61" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="AM61">
         <v>139</v>
@@ -10690,26 +10818,3162 @@
         <v>770</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="AU61">
         <v>44</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="3"/>
         <v>1529</v>
       </c>
       <c r="AY61">
         <v>3080</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>152</v>
+      </c>
+      <c r="L62">
+        <v>6.38</v>
+      </c>
+      <c r="M62">
+        <v>4.71</v>
+      </c>
+      <c r="N62">
+        <v>1.5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>156</v>
+      </c>
+      <c r="P62" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>16</v>
+      </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
+        <v>4</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>8</v>
+      </c>
+      <c r="AA62">
+        <v>7</v>
+      </c>
+      <c r="AB62">
+        <v>15</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>11</v>
+      </c>
+      <c r="AE62">
+        <v>22</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ62">
+        <v>6</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM62">
+        <v>9</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>20</v>
+      </c>
+      <c r="AP62">
+        <v>60</v>
+      </c>
+      <c r="AQ62">
+        <v>800</v>
+      </c>
+      <c r="AR62">
+        <v>60</v>
+      </c>
+      <c r="AS62">
+        <v>660</v>
+      </c>
+      <c r="AT62">
+        <v>1200</v>
+      </c>
+      <c r="AU62">
+        <v>11</v>
+      </c>
+      <c r="AV62">
+        <v>20</v>
+      </c>
+      <c r="AW62">
+        <v>220</v>
+      </c>
+      <c r="AX62">
+        <v>99</v>
+      </c>
+      <c r="AY62">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>153</v>
+      </c>
+      <c r="L63">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M63">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N63">
+        <v>19.13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>154</v>
+      </c>
+      <c r="P63" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q63">
+        <v>29</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>13</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>10</v>
+      </c>
+      <c r="AB63">
+        <v>9</v>
+      </c>
+      <c r="AC63">
+        <v>4</v>
+      </c>
+      <c r="AD63">
+        <v>14</v>
+      </c>
+      <c r="AE63">
+        <v>19</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ63">
+        <v>3</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM63">
+        <v>269</v>
+      </c>
+      <c r="AN63">
+        <v>4</v>
+      </c>
+      <c r="AO63">
+        <v>66</v>
+      </c>
+      <c r="AP63">
+        <v>30</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>120</v>
+      </c>
+      <c r="AS63">
+        <v>420</v>
+      </c>
+      <c r="AT63">
+        <v>1980</v>
+      </c>
+      <c r="AU63">
+        <v>56</v>
+      </c>
+      <c r="AV63">
+        <v>264</v>
+      </c>
+      <c r="AW63">
+        <v>924</v>
+      </c>
+      <c r="AX63">
+        <v>3766</v>
+      </c>
+      <c r="AY63">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64">
+        <v>2.14</v>
+      </c>
+      <c r="M64">
+        <v>3.62</v>
+      </c>
+      <c r="N64">
+        <v>3.44</v>
+      </c>
+      <c r="O64" t="s">
+        <v>165</v>
+      </c>
+      <c r="P64" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q64">
+        <v>19</v>
+      </c>
+      <c r="R64">
+        <v>12</v>
+      </c>
+      <c r="S64">
+        <v>17</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>10</v>
+      </c>
+      <c r="Z64">
+        <v>3</v>
+      </c>
+      <c r="AA64">
+        <v>9</v>
+      </c>
+      <c r="AB64">
+        <v>10</v>
+      </c>
+      <c r="AC64">
+        <v>8</v>
+      </c>
+      <c r="AD64">
+        <v>13</v>
+      </c>
+      <c r="AE64">
+        <v>19</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ64">
+        <v>5</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM64">
+        <v>305</v>
+      </c>
+      <c r="AN64">
+        <v>8</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>50</v>
+      </c>
+      <c r="AQ64">
+        <v>600</v>
+      </c>
+      <c r="AR64">
+        <v>400</v>
+      </c>
+      <c r="AS64">
+        <v>650</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>104</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>3965</v>
+      </c>
+      <c r="AY64">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65">
+        <v>3.35</v>
+      </c>
+      <c r="M65">
+        <v>3.63</v>
+      </c>
+      <c r="N65">
+        <v>2.17</v>
+      </c>
+      <c r="O65" t="s">
+        <v>155</v>
+      </c>
+      <c r="P65" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q65">
+        <v>6</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>17</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>9</v>
+      </c>
+      <c r="AA65">
+        <v>12</v>
+      </c>
+      <c r="AB65">
+        <v>14</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>26</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ65">
+        <v>5</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM65">
+        <v>16</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>40</v>
+      </c>
+      <c r="AP65">
+        <v>50</v>
+      </c>
+      <c r="AQ65">
+        <v>400</v>
+      </c>
+      <c r="AR65">
+        <v>50</v>
+      </c>
+      <c r="AS65">
+        <v>450</v>
+      </c>
+      <c r="AT65">
+        <v>2000</v>
+      </c>
+      <c r="AU65">
+        <v>9</v>
+      </c>
+      <c r="AV65">
+        <v>40</v>
+      </c>
+      <c r="AW65">
+        <v>360</v>
+      </c>
+      <c r="AX65">
+        <v>144</v>
+      </c>
+      <c r="AY65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>153</v>
+      </c>
+      <c r="L66">
+        <v>1.23</v>
+      </c>
+      <c r="M66">
+        <v>7.15</v>
+      </c>
+      <c r="N66">
+        <v>10.66</v>
+      </c>
+      <c r="O66" t="s">
+        <v>157</v>
+      </c>
+      <c r="P66" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66">
+        <v>20</v>
+      </c>
+      <c r="R66">
+        <v>7</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>8</v>
+      </c>
+      <c r="Z66">
+        <v>3</v>
+      </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
+      <c r="AB66">
+        <v>10</v>
+      </c>
+      <c r="AC66">
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <v>11</v>
+      </c>
+      <c r="AE66">
+        <v>14</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM66">
+        <v>275</v>
+      </c>
+      <c r="AN66">
+        <v>5</v>
+      </c>
+      <c r="AO66">
+        <v>54</v>
+      </c>
+      <c r="AP66">
+        <v>30</v>
+      </c>
+      <c r="AQ66">
+        <v>200</v>
+      </c>
+      <c r="AR66">
+        <v>150</v>
+      </c>
+      <c r="AS66">
+        <v>330</v>
+      </c>
+      <c r="AT66">
+        <v>1620</v>
+      </c>
+      <c r="AU66">
+        <v>55</v>
+      </c>
+      <c r="AV66">
+        <v>270</v>
+      </c>
+      <c r="AW66">
+        <v>594</v>
+      </c>
+      <c r="AX66">
+        <v>3025</v>
+      </c>
+      <c r="AY66">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>151</v>
+      </c>
+      <c r="L67">
+        <v>1.81</v>
+      </c>
+      <c r="M67">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N67">
+        <v>4.29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>163</v>
+      </c>
+      <c r="P67" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q67">
+        <v>23</v>
+      </c>
+      <c r="R67">
+        <v>13</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>5</v>
+      </c>
+      <c r="Z67">
+        <v>5</v>
+      </c>
+      <c r="AA67">
+        <v>12</v>
+      </c>
+      <c r="AB67">
+        <v>6</v>
+      </c>
+      <c r="AC67">
+        <v>5</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>18</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM67">
+        <v>168</v>
+      </c>
+      <c r="AN67">
+        <v>5</v>
+      </c>
+      <c r="AO67">
+        <v>72</v>
+      </c>
+      <c r="AP67">
+        <v>10</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>50</v>
+      </c>
+      <c r="AS67">
+        <v>100</v>
+      </c>
+      <c r="AT67">
+        <v>720</v>
+      </c>
+      <c r="AU67">
+        <v>50</v>
+      </c>
+      <c r="AV67">
+        <v>360</v>
+      </c>
+      <c r="AW67">
+        <v>720</v>
+      </c>
+      <c r="AX67">
+        <v>1680</v>
+      </c>
+      <c r="AY67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>153</v>
+      </c>
+      <c r="L68">
+        <v>3.18</v>
+      </c>
+      <c r="M68">
+        <v>3.59</v>
+      </c>
+      <c r="N68">
+        <v>2.27</v>
+      </c>
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q68">
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>14</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>10</v>
+      </c>
+      <c r="AA68">
+        <v>12</v>
+      </c>
+      <c r="AB68">
+        <v>8</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ68">
+        <v>3</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>30</v>
+      </c>
+      <c r="AQ68">
+        <v>200</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>300</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M69">
+        <v>3.87</v>
+      </c>
+      <c r="N69">
+        <v>3.09</v>
+      </c>
+      <c r="O69" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q69">
+        <v>11</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <v>4</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>6</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>12</v>
+      </c>
+      <c r="AB69">
+        <v>11</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>23</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ69">
+        <v>6</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>60</v>
+      </c>
+      <c r="AQ69">
+        <v>500</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>540</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70">
+        <v>1.5</v>
+      </c>
+      <c r="M70">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N70">
+        <v>6.2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>154</v>
+      </c>
+      <c r="P70" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q70">
+        <v>22</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>16</v>
+      </c>
+      <c r="T70">
+        <v>9</v>
+      </c>
+      <c r="U70">
+        <v>6</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>11</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>12</v>
+      </c>
+      <c r="AB70">
+        <v>11</v>
+      </c>
+      <c r="AC70">
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>14</v>
+      </c>
+      <c r="AE70">
+        <v>23</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ70">
+        <v>8</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM70">
+        <v>106</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>22</v>
+      </c>
+      <c r="AP70">
+        <v>105</v>
+      </c>
+      <c r="AQ70">
+        <v>2700</v>
+      </c>
+      <c r="AR70">
+        <v>210</v>
+      </c>
+      <c r="AS70">
+        <v>1470</v>
+      </c>
+      <c r="AT70">
+        <v>2310</v>
+      </c>
+      <c r="AU70">
+        <v>28</v>
+      </c>
+      <c r="AV70">
+        <v>44</v>
+      </c>
+      <c r="AW70">
+        <v>308</v>
+      </c>
+      <c r="AX70">
+        <v>1484</v>
+      </c>
+      <c r="AY70">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>152</v>
+      </c>
+      <c r="L71">
+        <v>2.95</v>
+      </c>
+      <c r="M71">
+        <v>3.99</v>
+      </c>
+      <c r="N71">
+        <v>2.25</v>
+      </c>
+      <c r="O71" t="s">
+        <v>162</v>
+      </c>
+      <c r="P71" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q71">
+        <v>11</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>13</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>4</v>
+      </c>
+      <c r="Z71">
+        <v>7</v>
+      </c>
+      <c r="AA71">
+        <v>14</v>
+      </c>
+      <c r="AB71">
+        <v>10</v>
+      </c>
+      <c r="AC71">
+        <v>5</v>
+      </c>
+      <c r="AD71">
+        <v>11</v>
+      </c>
+      <c r="AE71">
+        <v>24</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ71">
+        <v>4</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM71">
+        <v>232</v>
+      </c>
+      <c r="AN71">
+        <v>5</v>
+      </c>
+      <c r="AO71">
+        <v>81</v>
+      </c>
+      <c r="AP71">
+        <v>40</v>
+      </c>
+      <c r="AQ71">
+        <v>400</v>
+      </c>
+      <c r="AR71">
+        <v>200</v>
+      </c>
+      <c r="AS71">
+        <v>440</v>
+      </c>
+      <c r="AT71">
+        <v>3240</v>
+      </c>
+      <c r="AU71">
+        <v>55</v>
+      </c>
+      <c r="AV71">
+        <v>405</v>
+      </c>
+      <c r="AW71">
+        <v>891</v>
+      </c>
+      <c r="AX71">
+        <v>2552</v>
+      </c>
+      <c r="AY71">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>153</v>
+      </c>
+      <c r="L72">
+        <v>1.5</v>
+      </c>
+      <c r="M72">
+        <v>5.01</v>
+      </c>
+      <c r="N72">
+        <v>5.88</v>
+      </c>
+      <c r="O72" t="s">
+        <v>157</v>
+      </c>
+      <c r="P72" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q72">
+        <v>22</v>
+      </c>
+      <c r="R72">
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <v>11</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>13</v>
+      </c>
+      <c r="Z72">
+        <v>5</v>
+      </c>
+      <c r="AA72">
+        <v>10</v>
+      </c>
+      <c r="AB72">
+        <v>15</v>
+      </c>
+      <c r="AC72">
+        <v>5</v>
+      </c>
+      <c r="AD72">
+        <v>18</v>
+      </c>
+      <c r="AE72">
+        <v>25</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ72">
+        <v>4</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM72">
+        <v>221</v>
+      </c>
+      <c r="AN72">
+        <v>5</v>
+      </c>
+      <c r="AO72">
+        <v>73</v>
+      </c>
+      <c r="AP72">
+        <v>65</v>
+      </c>
+      <c r="AQ72">
+        <v>550</v>
+      </c>
+      <c r="AR72">
+        <v>325</v>
+      </c>
+      <c r="AS72">
+        <v>1170</v>
+      </c>
+      <c r="AT72">
+        <f>AO72*AP72</f>
+        <v>4745</v>
+      </c>
+      <c r="AU72">
+        <v>90</v>
+      </c>
+      <c r="AV72">
+        <f>AN72*AO72</f>
+        <v>365</v>
+      </c>
+      <c r="AW72">
+        <f>AO72*AD72</f>
+        <v>1314</v>
+      </c>
+      <c r="AX72">
+        <f>AM72*AD72</f>
+        <v>3978</v>
+      </c>
+      <c r="AY72">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73">
+        <v>2.46</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+      <c r="N73">
+        <v>2.94</v>
+      </c>
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q73">
+        <v>10</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>14</v>
+      </c>
+      <c r="T73">
+        <v>5</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>6</v>
+      </c>
+      <c r="Z73">
+        <v>11</v>
+      </c>
+      <c r="AA73">
+        <v>8</v>
+      </c>
+      <c r="AB73">
+        <v>11</v>
+      </c>
+      <c r="AC73">
+        <v>4</v>
+      </c>
+      <c r="AD73">
+        <v>17</v>
+      </c>
+      <c r="AE73">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ73">
+        <v>6</v>
+      </c>
+      <c r="AK73">
+        <v>2</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM73">
+        <v>142</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>76</v>
+      </c>
+      <c r="AP73">
+        <v>110</v>
+      </c>
+      <c r="AQ73">
+        <v>3025</v>
+      </c>
+      <c r="AR73">
+        <v>440</v>
+      </c>
+      <c r="AS73">
+        <v>1870</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" ref="AT73:AT81" si="0">AO73*AP73</f>
+        <v>8360</v>
+      </c>
+      <c r="AU73">
+        <v>68</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" ref="AV73:AV81" si="1">AN73*AO73</f>
+        <v>304</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" ref="AW73:AW81" si="2">AO73*AD73</f>
+        <v>1292</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" ref="AX73:AX81" si="3">AM73*AD73</f>
+        <v>2414</v>
+      </c>
+      <c r="AY73">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>152</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L74">
+        <v>2.4</v>
+      </c>
+      <c r="M74">
+        <v>3.43</v>
+      </c>
+      <c r="N74">
+        <v>3.07</v>
+      </c>
+      <c r="O74" t="s">
+        <v>162</v>
+      </c>
+      <c r="P74" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q74">
+        <v>13</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>8</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>5</v>
+      </c>
+      <c r="Z74">
+        <v>8</v>
+      </c>
+      <c r="AA74">
+        <v>12</v>
+      </c>
+      <c r="AB74">
+        <v>10</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AD74">
+        <v>13</v>
+      </c>
+      <c r="AE74">
+        <v>22</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM74">
+        <v>57</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>15</v>
+      </c>
+      <c r="AP74">
+        <v>20</v>
+      </c>
+      <c r="AQ74">
+        <v>100</v>
+      </c>
+      <c r="AR74">
+        <v>40</v>
+      </c>
+      <c r="AS74">
+        <v>260</v>
+      </c>
+      <c r="AT74">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="AU74">
+        <v>26</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="AX74">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="AY74">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>152</v>
+      </c>
+      <c r="L75">
+        <v>1.72</v>
+      </c>
+      <c r="M75">
+        <v>4.37</v>
+      </c>
+      <c r="N75">
+        <v>4.43</v>
+      </c>
+      <c r="O75" t="s">
+        <v>156</v>
+      </c>
+      <c r="P75" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q75">
+        <v>23</v>
+      </c>
+      <c r="R75">
+        <v>11</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>9</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>14</v>
+      </c>
+      <c r="AB75">
+        <v>5</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>19</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ75">
+        <v>4</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM75">
+        <v>154</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>31</v>
+      </c>
+      <c r="AP75">
+        <v>40</v>
+      </c>
+      <c r="AQ75">
+        <v>400</v>
+      </c>
+      <c r="AR75">
+        <v>120</v>
+      </c>
+      <c r="AS75">
+        <v>440</v>
+      </c>
+      <c r="AT75">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="AU75">
+        <v>33</v>
+      </c>
+      <c r="AV75">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="AW75">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="AX75">
+        <f t="shared" si="3"/>
+        <v>1694</v>
+      </c>
+      <c r="AY75">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>152</v>
+      </c>
+      <c r="L76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M76">
+        <v>3.91</v>
+      </c>
+      <c r="N76">
+        <v>3.55</v>
+      </c>
+      <c r="O76" t="s">
+        <v>156</v>
+      </c>
+      <c r="P76" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q76">
+        <v>21</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>4</v>
+      </c>
+      <c r="AA76">
+        <v>11</v>
+      </c>
+      <c r="AB76">
+        <v>9</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ76">
+        <v>4</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM76">
+        <v>35</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>18</v>
+      </c>
+      <c r="AP76">
+        <v>40</v>
+      </c>
+      <c r="AQ76">
+        <v>400</v>
+      </c>
+      <c r="AR76">
+        <v>40</v>
+      </c>
+      <c r="AS76">
+        <v>520</v>
+      </c>
+      <c r="AT76">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="AU76">
+        <v>13</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="AY76">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>151</v>
+      </c>
+      <c r="L77">
+        <v>2.34</v>
+      </c>
+      <c r="M77">
+        <v>3.53</v>
+      </c>
+      <c r="N77">
+        <v>3.09</v>
+      </c>
+      <c r="O77" t="s">
+        <v>159</v>
+      </c>
+      <c r="P77" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q77">
+        <v>14</v>
+      </c>
+      <c r="R77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>18</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>5</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>10</v>
+      </c>
+      <c r="Z77">
+        <v>6</v>
+      </c>
+      <c r="AA77">
+        <v>10</v>
+      </c>
+      <c r="AB77">
+        <v>10</v>
+      </c>
+      <c r="AC77">
+        <v>5</v>
+      </c>
+      <c r="AD77">
+        <v>16</v>
+      </c>
+      <c r="AE77">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ77">
+        <v>8</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM77">
+        <v>264</v>
+      </c>
+      <c r="AN77">
+        <v>5</v>
+      </c>
+      <c r="AO77">
+        <v>93</v>
+      </c>
+      <c r="AP77">
+        <v>105</v>
+      </c>
+      <c r="AQ77">
+        <v>2250</v>
+      </c>
+      <c r="AR77">
+        <v>525</v>
+      </c>
+      <c r="AS77">
+        <v>1680</v>
+      </c>
+      <c r="AT77">
+        <f t="shared" si="0"/>
+        <v>9765</v>
+      </c>
+      <c r="AU77">
+        <v>80</v>
+      </c>
+      <c r="AV77">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="2"/>
+        <v>1488</v>
+      </c>
+      <c r="AX77">
+        <f t="shared" si="3"/>
+        <v>4224</v>
+      </c>
+      <c r="AY77">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>153</v>
+      </c>
+      <c r="L78">
+        <v>5.01</v>
+      </c>
+      <c r="M78">
+        <v>4.13</v>
+      </c>
+      <c r="N78">
+        <v>1.68</v>
+      </c>
+      <c r="O78" t="s">
+        <v>154</v>
+      </c>
+      <c r="P78" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q78">
+        <v>13</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>6</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>7</v>
+      </c>
+      <c r="Z78">
+        <v>4</v>
+      </c>
+      <c r="AA78">
+        <v>12</v>
+      </c>
+      <c r="AB78">
+        <v>11</v>
+      </c>
+      <c r="AC78">
+        <v>2</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>23</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM78">
+        <v>149</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>29</v>
+      </c>
+      <c r="AP78">
+        <v>45</v>
+      </c>
+      <c r="AQ78">
+        <v>350</v>
+      </c>
+      <c r="AR78">
+        <v>90</v>
+      </c>
+      <c r="AS78">
+        <v>495</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="0"/>
+        <v>1305</v>
+      </c>
+      <c r="AU78">
+        <v>22</v>
+      </c>
+      <c r="AV78">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="AX78">
+        <f t="shared" si="3"/>
+        <v>1639</v>
+      </c>
+      <c r="AY78">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>153</v>
+      </c>
+      <c r="L79">
+        <v>9.01</v>
+      </c>
+      <c r="M79">
+        <v>5.92</v>
+      </c>
+      <c r="N79">
+        <v>1.32</v>
+      </c>
+      <c r="O79" t="s">
+        <v>157</v>
+      </c>
+      <c r="P79" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>22</v>
+      </c>
+      <c r="T79">
+        <v>7</v>
+      </c>
+      <c r="U79">
+        <v>4</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+      <c r="AA79">
+        <v>8</v>
+      </c>
+      <c r="AB79">
+        <v>5</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+      <c r="AD79">
+        <v>19</v>
+      </c>
+      <c r="AE79">
+        <v>13</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ79">
+        <v>5</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM79">
+        <v>130</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>38</v>
+      </c>
+      <c r="AP79">
+        <v>50</v>
+      </c>
+      <c r="AQ79">
+        <v>400</v>
+      </c>
+      <c r="AR79">
+        <v>150</v>
+      </c>
+      <c r="AS79">
+        <v>950</v>
+      </c>
+      <c r="AT79">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="AU79">
+        <v>57</v>
+      </c>
+      <c r="AV79">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="AW79">
+        <f t="shared" si="2"/>
+        <v>722</v>
+      </c>
+      <c r="AX79">
+        <f t="shared" si="3"/>
+        <v>2470</v>
+      </c>
+      <c r="AY79">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D80" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80">
+        <v>1.62</v>
+      </c>
+      <c r="M80">
+        <v>4.47</v>
+      </c>
+      <c r="N80">
+        <v>5.08</v>
+      </c>
+      <c r="O80" t="s">
+        <v>155</v>
+      </c>
+      <c r="P80" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q80">
+        <v>9</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>12</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+      <c r="AA80">
+        <v>12</v>
+      </c>
+      <c r="AB80">
+        <v>13</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>7</v>
+      </c>
+      <c r="AE80">
+        <v>25</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ80">
+        <v>7</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM80">
+        <v>128</v>
+      </c>
+      <c r="AN80">
+        <v>3</v>
+      </c>
+      <c r="AO80">
+        <v>43</v>
+      </c>
+      <c r="AP80">
+        <v>70</v>
+      </c>
+      <c r="AQ80">
+        <v>1200</v>
+      </c>
+      <c r="AR80">
+        <v>210</v>
+      </c>
+      <c r="AS80">
+        <v>490</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="0"/>
+        <v>3010</v>
+      </c>
+      <c r="AU80">
+        <v>21</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AW80">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" si="3"/>
+        <v>896</v>
+      </c>
+      <c r="AY80">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45586</v>
+      </c>
+      <c r="D81" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>153</v>
+      </c>
+      <c r="L81">
+        <v>2.41</v>
+      </c>
+      <c r="M81">
+        <v>3.28</v>
+      </c>
+      <c r="N81">
+        <v>3.19</v>
+      </c>
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+      <c r="P81" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q81">
+        <v>20</v>
+      </c>
+      <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>20</v>
+      </c>
+      <c r="T81">
+        <v>7</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>6</v>
+      </c>
+      <c r="Z81">
+        <v>6</v>
+      </c>
+      <c r="AA81">
+        <v>9</v>
+      </c>
+      <c r="AB81">
+        <v>12</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>21</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ81">
+        <v>5</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM81">
+        <v>65</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>11</v>
+      </c>
+      <c r="AP81">
+        <v>50</v>
+      </c>
+      <c r="AQ81">
+        <v>600</v>
+      </c>
+      <c r="AR81">
+        <v>50</v>
+      </c>
+      <c r="AS81">
+        <v>600</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="AU81">
+        <v>12</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="AX81">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="AY81">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
